--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Thesis_Work\Calibration_Positioning_project\Final_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3A048-65B1-46B5-9EE2-BE5CDDF3C26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06C8889-0F00-4B67-A9F2-505CF95D34B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1173,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="1">
-        <v>6.666666666666667</v>
+        <v>6.6666999999999996</v>
       </c>
       <c r="AK1" t="s">
         <v>5</v>
@@ -1340,19 +1340,19 @@
         <v>-33.959000000000003</v>
       </c>
       <c r="H2" s="14">
-        <f xml:space="preserve"> ROUND(E2 - COS(F2)*DbPA*1.5*SIGN(E2 - E3),4)</f>
+        <f xml:space="preserve"> ROUND(E2 - COS(F2)*DbPA*1.5,4)</f>
         <v>193.4554</v>
       </c>
       <c r="I2" s="14">
-        <f xml:space="preserve"> ROUND(E2 - COS(F2)*DbPA*0.5*SIGN(E2 - E3),4)</f>
+        <f xml:space="preserve"> ROUND(E2 - COS(F2)*DbPA*0.5,4)</f>
         <v>197.17939999999999</v>
       </c>
       <c r="J2" s="14">
-        <f xml:space="preserve"> ROUND(E2 + COS(F2)*DbPA*0.5*SIGN(E2 - E3),4)</f>
+        <f xml:space="preserve"> ROUND(E2 + COS(F2)*DbPA*0.5,4)</f>
         <v>200.9034</v>
       </c>
       <c r="K2" s="10">
-        <f xml:space="preserve"> ROUND(E2 + COS(F2)*DbPA*1.5*SIGN(E2 - E3),4)</f>
+        <f xml:space="preserve"> ROUND(E2 + COS(F2)*DbPA*1.5,4)</f>
         <v>204.62739999999999</v>
       </c>
       <c r="L2" s="23">
@@ -1360,8 +1360,8 @@
         <v>330.38600000000002</v>
       </c>
       <c r="M2" s="20">
-        <f>ROUND(MOD(H2,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.7663000000000002</v>
+        <f>ROUND(MOD(H2,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>2.6246999999999998</v>
       </c>
       <c r="N2" s="20">
         <f>ROUND(H2/100*1000000000/(300000000),4)</f>
@@ -1376,8 +1376,8 @@
         <v>226.22479999999999</v>
       </c>
       <c r="Q2" s="20">
-        <f>ROUND(MOD(I2,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.9483999999999999</v>
+        <f>ROUND(MOD(I2,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.80679999999999996</v>
       </c>
       <c r="R2" s="20">
         <f>ROUND(I2/100*1000000000/(300000000),4)</f>
@@ -1392,8 +1392,8 @@
         <v>122.06359999999999</v>
       </c>
       <c r="U2" s="20">
-        <f>ROUND(MOD(J2,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.1303999999999998</v>
+        <f>ROUND(MOD(J2,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-1.0112000000000001</v>
       </c>
       <c r="V2" s="20">
         <f>ROUND(J2/100*1000000000/300000000,4)</f>
@@ -1408,8 +1408,8 @@
         <v>17.9024</v>
       </c>
       <c r="Y2" s="20">
-        <f>ROUND(MOD(K2,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.3125</v>
+        <f>ROUND(MOD(K2,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.8290999999999999</v>
       </c>
       <c r="Z2" s="20">
         <f>ROUND(K2/100*1000000000/300000000,4)</f>
@@ -1461,28 +1461,28 @@
         <v>-29.6904</v>
       </c>
       <c r="H3" s="14">
-        <f xml:space="preserve"> ROUND(E3 - COS(F3)*DbPA*1.5*SIGN(E3 - E4),4)</f>
-        <v>189.57060000000001</v>
+        <f xml:space="preserve"> ROUND(E3 - COS(F3)*DbPA*1.5,4)</f>
+        <v>189.57050000000001</v>
       </c>
       <c r="I3" s="14">
-        <f xml:space="preserve"> ROUND(E3 - COS(F3)*DbPA*0.5*SIGN(E3 - E4),4)</f>
-        <v>192.87270000000001</v>
+        <f xml:space="preserve"> ROUND(E3 - COS(F3)*DbPA*0.5,4)</f>
+        <v>192.87260000000001</v>
       </c>
       <c r="J3" s="14">
-        <f xml:space="preserve"> ROUND(E3 + COS(F3)*DbPA*0.5*SIGN(E3 - E4),4)</f>
-        <v>196.1747</v>
+        <f xml:space="preserve"> ROUND(E3 + COS(F3)*DbPA*0.5,4)</f>
+        <v>196.1748</v>
       </c>
       <c r="K3" s="10">
-        <f xml:space="preserve"> ROUND(E3 + COS(F3)*DbPA*1.5*SIGN(E3 - E4),4)</f>
-        <v>199.4768</v>
+        <f xml:space="preserve"> ROUND(E3 + COS(F3)*DbPA*1.5,4)</f>
+        <v>199.4769</v>
       </c>
       <c r="L3" s="23">
         <f xml:space="preserve"> ROUND(MOD(H3,Lambda)*360/Lambda,4)</f>
-        <v>63.5002</v>
+        <v>63.493400000000001</v>
       </c>
       <c r="M3" s="20">
-        <f>ROUND(MOD(H3,Lambda)*2*PI/Lambda,4)</f>
-        <v>1.1083000000000001</v>
+        <f>ROUND(MOD(H3,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.0333999999999999</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" ref="N3:N21" si="3">ROUND(H3/100*1000000000/(300000000),4)</f>
@@ -1494,11 +1494,11 @@
       </c>
       <c r="P3" s="23">
         <f>ROUND(MOD(I3,Lambda)*360/Lambda,4)</f>
-        <v>290.35449999999997</v>
+        <v>290.3476</v>
       </c>
       <c r="Q3" s="20">
-        <f>ROUND(MOD(I3,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.0675999999999997</v>
+        <f>ROUND(MOD(I3,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.9258999999999999</v>
       </c>
       <c r="R3" s="20">
         <f t="shared" ref="R3:R21" si="4">ROUND(I3/100*1000000000/(300000000),4)</f>
@@ -1510,11 +1510,11 @@
       </c>
       <c r="T3" s="23">
         <f>ROUND(MOD(J3,Lambda)*360/Lambda,4)</f>
-        <v>157.20189999999999</v>
+        <v>157.2088</v>
       </c>
       <c r="U3" s="20">
-        <f>ROUND(MOD(J3,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.7437</v>
+        <f>ROUND(MOD(J3,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.39779999999999999</v>
       </c>
       <c r="V3" s="20">
         <f t="shared" ref="V3:V21" si="5">ROUND(J3/100*1000000000/300000000,4)</f>
@@ -1526,11 +1526,11 @@
       </c>
       <c r="X3" s="23">
         <f>ROUND(MOD(K3,Lambda)*360/Lambda,4)</f>
-        <v>24.0562</v>
+        <v>24.062999999999999</v>
       </c>
       <c r="Y3" s="20">
-        <f>ROUND(MOD(K3,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.4199</v>
+        <f>ROUND(MOD(K3,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.7216</v>
       </c>
       <c r="Z3" s="20">
         <f t="shared" ref="Z3:Z21" si="6">ROUND(K3/100*1000000000/300000000,4)</f>
@@ -1585,19 +1585,19 @@
         <v>-25.662500000000001</v>
       </c>
       <c r="H4" s="14">
-        <f xml:space="preserve"> ROUND(E4 - COS(F4)*DbPA*1.5*SIGN(E4 - E5),4)</f>
+        <f xml:space="preserve"> ROUND(E4 - COS(F4)*DbPA*1.5,4)</f>
         <v>186.09370000000001</v>
       </c>
       <c r="I4" s="14">
-        <f xml:space="preserve"> ROUND(E4 - COS(F4)*DbPA*0.5*SIGN(E4 - E5),4)</f>
+        <f xml:space="preserve"> ROUND(E4 - COS(F4)*DbPA*0.5,4)</f>
         <v>188.98079999999999</v>
       </c>
       <c r="J4" s="14">
-        <f xml:space="preserve"> ROUND(E4 + COS(F4)*DbPA*0.5*SIGN(E4 - E5),4)</f>
+        <f xml:space="preserve"> ROUND(E4 + COS(F4)*DbPA*0.5,4)</f>
         <v>191.86799999999999</v>
       </c>
       <c r="K4" s="10">
-        <f xml:space="preserve"> ROUND(E4 + COS(F4)*DbPA*1.5*SIGN(E4 - E5),4)</f>
+        <f xml:space="preserve"> ROUND(E4 + COS(F4)*DbPA*1.5,4)</f>
         <v>194.7551</v>
       </c>
       <c r="L4" s="23">
@@ -1605,8 +1605,8 @@
         <v>184.63720000000001</v>
       </c>
       <c r="M4" s="20">
-        <f>ROUND(MOD(H4,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.2225000000000001</v>
+        <f>ROUND(MOD(H4,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>8.09E-2</v>
       </c>
       <c r="N4" s="20">
         <f t="shared" si="3"/>
@@ -1621,8 +1621,8 @@
         <v>22.981000000000002</v>
       </c>
       <c r="Q4" s="20">
-        <f>ROUND(MOD(I4,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.40110000000000001</v>
+        <f>ROUND(MOD(I4,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.7404999999999999</v>
       </c>
       <c r="R4" s="20">
         <f t="shared" si="4"/>
@@ -1637,8 +1637,8 @@
         <v>221.33160000000001</v>
       </c>
       <c r="U4" s="20">
-        <f>ROUND(MOD(J4,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.863</v>
+        <f>ROUND(MOD(J4,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.72140000000000004</v>
       </c>
       <c r="V4" s="20">
         <f t="shared" si="5"/>
@@ -1653,8 +1653,8 @@
         <v>59.675400000000003</v>
       </c>
       <c r="Y4" s="20">
-        <f>ROUND(MOD(K4,Lambda)*2*PI/Lambda,4)</f>
-        <v>1.0415000000000001</v>
+        <f>ROUND(MOD(K4,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.1000999999999999</v>
       </c>
       <c r="Z4" s="20">
         <f t="shared" si="6"/>
@@ -1710,19 +1710,19 @@
         <v>-21.8352</v>
       </c>
       <c r="H5" s="14">
-        <f xml:space="preserve"> ROUND(E5 - COS(F5)*DbPA*1.5*SIGN(E5 - E6),4)</f>
+        <f xml:space="preserve"> ROUND(E5 - COS(F5)*DbPA*1.5,4)</f>
         <v>183.05170000000001</v>
       </c>
       <c r="I5" s="14">
-        <f xml:space="preserve"> ROUND(E5 - COS(F5)*DbPA*0.5*SIGN(E5 - E6),4)</f>
+        <f xml:space="preserve"> ROUND(E5 - COS(F5)*DbPA*0.5,4)</f>
         <v>185.53129999999999</v>
       </c>
       <c r="J5" s="14">
-        <f xml:space="preserve"> ROUND(E5 + COS(F5)*DbPA*0.5*SIGN(E5 - E6),4)</f>
+        <f xml:space="preserve"> ROUND(E5 + COS(F5)*DbPA*0.5,4)</f>
         <v>188.01089999999999</v>
       </c>
       <c r="K5" s="10">
-        <f xml:space="preserve"> ROUND(E5 + COS(F5)*DbPA*1.5*SIGN(E5 - E6),4)</f>
+        <f xml:space="preserve"> ROUND(E5 + COS(F5)*DbPA*1.5,4)</f>
         <v>190.4905</v>
       </c>
       <c r="L5" s="23">
@@ -1730,8 +1730,8 @@
         <v>335.65179999999998</v>
       </c>
       <c r="M5" s="20">
-        <f>ROUND(MOD(H5,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.8582000000000001</v>
+        <f>ROUND(MOD(H5,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>2.7166000000000001</v>
       </c>
       <c r="N5" s="20">
         <f t="shared" si="3"/>
@@ -1746,8 +1746,8 @@
         <v>146.00030000000001</v>
       </c>
       <c r="Q5" s="20">
-        <f>ROUND(MOD(I5,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.5482</v>
+        <f>ROUND(MOD(I5,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.59340000000000004</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="4"/>
@@ -1762,8 +1762,8 @@
         <v>316.34879999999998</v>
       </c>
       <c r="U5" s="20">
-        <f>ROUND(MOD(J5,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.5213000000000001</v>
+        <f>ROUND(MOD(J5,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>2.3797000000000001</v>
       </c>
       <c r="V5" s="20">
         <f t="shared" si="5"/>
@@ -1778,8 +1778,8 @@
         <v>126.6974</v>
       </c>
       <c r="Y5" s="20">
-        <f>ROUND(MOD(K5,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.2113</v>
+        <f>ROUND(MOD(K5,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.93030000000000002</v>
       </c>
       <c r="Z5" s="20">
         <f t="shared" si="6"/>
@@ -1825,28 +1825,28 @@
         <v>-18.173999999999999</v>
       </c>
       <c r="H6" s="14">
-        <f xml:space="preserve"> ROUND(E6 - COS(F6)*DbPA*1.5*SIGN(E6 - E7),4)</f>
-        <v>180.47149999999999</v>
+        <f xml:space="preserve"> ROUND(E6 - COS(F6)*DbPA*1.5,4)</f>
+        <v>180.47139999999999</v>
       </c>
       <c r="I6" s="14">
-        <f xml:space="preserve"> ROUND(E6 - COS(F6)*DbPA*0.5*SIGN(E6 - E7),4)</f>
+        <f xml:space="preserve"> ROUND(E6 - COS(F6)*DbPA*0.5,4)</f>
         <v>182.55080000000001</v>
       </c>
       <c r="J6" s="14">
-        <f xml:space="preserve"> ROUND(E6 + COS(F6)*DbPA*0.5*SIGN(E6 - E7),4)</f>
+        <f xml:space="preserve"> ROUND(E6 + COS(F6)*DbPA*0.5,4)</f>
         <v>184.6302</v>
       </c>
       <c r="K6" s="10">
-        <f xml:space="preserve"> ROUND(E6 + COS(F6)*DbPA*1.5*SIGN(E6 - E7),4)</f>
-        <v>186.70949999999999</v>
+        <f xml:space="preserve"> ROUND(E6 + COS(F6)*DbPA*1.5,4)</f>
+        <v>186.70959999999999</v>
       </c>
       <c r="L6" s="23">
         <f xml:space="preserve"> ROUND(MOD(H6,Lambda)*360/Lambda,4)</f>
-        <v>158.3921</v>
+        <v>158.3852</v>
       </c>
       <c r="M6" s="20">
-        <f>ROUND(MOD(H6,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.7645</v>
+        <f>ROUND(MOD(H6,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.37719999999999998</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" si="3"/>
@@ -1861,8 +1861,8 @@
         <v>301.24</v>
       </c>
       <c r="Q6" s="20">
-        <f>ROUND(MOD(I6,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.2576000000000001</v>
+        <f>ROUND(MOD(I6,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>2.1160000000000001</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="4"/>
@@ -1877,8 +1877,8 @@
         <v>84.094700000000003</v>
       </c>
       <c r="U6" s="20">
-        <f>ROUND(MOD(J6,Lambda)*2*PI/Lambda,4)</f>
-        <v>1.4677</v>
+        <f>ROUND(MOD(J6,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-1.6738999999999999</v>
       </c>
       <c r="V6" s="20">
         <f t="shared" si="5"/>
@@ -1890,11 +1890,11 @@
       </c>
       <c r="X6" s="23">
         <f>ROUND(MOD(K6,Lambda)*360/Lambda,4)</f>
-        <v>226.9427</v>
+        <v>226.9495</v>
       </c>
       <c r="Y6" s="20">
-        <f>ROUND(MOD(K6,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.9609000000000001</v>
+        <f>ROUND(MOD(K6,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.81940000000000002</v>
       </c>
       <c r="Z6" s="20">
         <f t="shared" si="6"/>
@@ -1940,19 +1940,19 @@
         <v>-14.6388</v>
       </c>
       <c r="H7" s="14">
-        <f xml:space="preserve"> ROUND(E7 - COS(F7)*DbPA*1.5*SIGN(E7 - E8),4)</f>
+        <f xml:space="preserve"> ROUND(E7 - COS(F7)*DbPA*1.5,4)</f>
         <v>178.38</v>
       </c>
       <c r="I7" s="14">
-        <f xml:space="preserve"> ROUND(E7 - COS(F7)*DbPA*0.5*SIGN(E7 - E8),4)</f>
+        <f xml:space="preserve"> ROUND(E7 - COS(F7)*DbPA*0.5,4)</f>
         <v>180.06489999999999</v>
       </c>
       <c r="J7" s="14">
-        <f xml:space="preserve"> ROUND(E7 + COS(F7)*DbPA*0.5*SIGN(E7 - E8),4)</f>
+        <f xml:space="preserve"> ROUND(E7 + COS(F7)*DbPA*0.5,4)</f>
         <v>181.74969999999999</v>
       </c>
       <c r="K7" s="10">
-        <f xml:space="preserve"> ROUND(E7 + COS(F7)*DbPA*1.5*SIGN(E7 - E8),4)</f>
+        <f xml:space="preserve"> ROUND(E7 + COS(F7)*DbPA*1.5,4)</f>
         <v>183.43459999999999</v>
       </c>
       <c r="L7" s="23">
@@ -1960,8 +1960,8 @@
         <v>14.706</v>
       </c>
       <c r="M7" s="20">
-        <f>ROUND(MOD(H7,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.25669999999999998</v>
+        <f>ROUND(MOD(H7,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.8849</v>
       </c>
       <c r="N7" s="20">
         <f t="shared" si="3"/>
@@ -1976,8 +1976,8 @@
         <v>130.45859999999999</v>
       </c>
       <c r="Q7" s="20">
-        <f>ROUND(MOD(I7,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.2768999999999999</v>
+        <f>ROUND(MOD(I7,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.86470000000000002</v>
       </c>
       <c r="R7" s="20">
         <f t="shared" si="4"/>
@@ -1992,8 +1992,8 @@
         <v>246.20439999999999</v>
       </c>
       <c r="U7" s="20">
-        <f>ROUND(MOD(J7,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.2971000000000004</v>
+        <f>ROUND(MOD(J7,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.1555</v>
       </c>
       <c r="V7" s="20">
         <f t="shared" si="5"/>
@@ -2008,8 +2008,8 @@
         <v>1.9570000000000001</v>
       </c>
       <c r="Y7" s="20">
-        <f>ROUND(MOD(K7,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.4200000000000001E-2</v>
+        <f>ROUND(MOD(K7,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-3.1074000000000002</v>
       </c>
       <c r="Z7" s="20">
         <f t="shared" si="6"/>
@@ -2055,19 +2055,19 @@
         <v>-11.206799999999999</v>
       </c>
       <c r="H8" s="14">
-        <f xml:space="preserve"> ROUND(E8 - COS(F8)*DbPA*1.5*SIGN(E8 - E9),4)</f>
+        <f xml:space="preserve"> ROUND(E8 - COS(F8)*DbPA*1.5,4)</f>
         <v>176.8006</v>
       </c>
       <c r="I8" s="14">
-        <f xml:space="preserve"> ROUND(E8 - COS(F8)*DbPA*0.5*SIGN(E8 - E9),4)</f>
+        <f xml:space="preserve"> ROUND(E8 - COS(F8)*DbPA*0.5,4)</f>
         <v>178.09630000000001</v>
       </c>
       <c r="J8" s="14">
-        <f xml:space="preserve"> ROUND(E8 + COS(F8)*DbPA*0.5*SIGN(E8 - E9),4)</f>
+        <f xml:space="preserve"> ROUND(E8 + COS(F8)*DbPA*0.5,4)</f>
         <v>179.39189999999999</v>
       </c>
       <c r="K8" s="10">
-        <f xml:space="preserve"> ROUND(E8 + COS(F8)*DbPA*1.5*SIGN(E8 - E9),4)</f>
+        <f xml:space="preserve"> ROUND(E8 + COS(F8)*DbPA*1.5,4)</f>
         <v>180.6876</v>
       </c>
       <c r="L8" s="23">
@@ -2075,8 +2075,8 @@
         <v>266.20119999999997</v>
       </c>
       <c r="M8" s="20">
-        <f>ROUND(MOD(H8,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.6460999999999997</v>
+        <f>ROUND(MOD(H8,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.5044999999999999</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" si="3"/>
@@ -2091,8 +2091,8 @@
         <v>355.2158</v>
       </c>
       <c r="Q8" s="20">
-        <f>ROUND(MOD(I8,Lambda)*2*PI/Lambda,4)</f>
-        <v>6.1997</v>
+        <f>ROUND(MOD(I8,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>3.0581</v>
       </c>
       <c r="R8" s="20">
         <f t="shared" si="4"/>
@@ -2107,8 +2107,8 @@
         <v>84.223500000000001</v>
       </c>
       <c r="U8" s="20">
-        <f>ROUND(MOD(J8,Lambda)*2*PI/Lambda,4)</f>
-        <v>1.47</v>
+        <f>ROUND(MOD(J8,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-1.6716</v>
       </c>
       <c r="V8" s="20">
         <f t="shared" si="5"/>
@@ -2123,8 +2123,8 @@
         <v>173.2381</v>
       </c>
       <c r="Y8" s="20">
-        <f>ROUND(MOD(K8,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.0236000000000001</v>
+        <f>ROUND(MOD(K8,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="Z8" s="20">
         <f t="shared" si="6"/>
@@ -2170,19 +2170,19 @@
         <v>-7.8491999999999997</v>
       </c>
       <c r="H9" s="14">
-        <f xml:space="preserve"> ROUND(E9 - COS(F9)*DbPA*1.5*SIGN(E9 - E10),4)</f>
+        <f xml:space="preserve"> ROUND(E9 - COS(F9)*DbPA*1.5,4)</f>
         <v>175.7542</v>
       </c>
       <c r="I9" s="14">
-        <f xml:space="preserve"> ROUND(E9 - COS(F9)*DbPA*0.5*SIGN(E9 - E10),4)</f>
+        <f xml:space="preserve"> ROUND(E9 - COS(F9)*DbPA*0.5,4)</f>
         <v>176.66470000000001</v>
       </c>
       <c r="J9" s="14">
-        <f xml:space="preserve"> ROUND(E9 + COS(F9)*DbPA*0.5*SIGN(E9 - E10),4)</f>
+        <f xml:space="preserve"> ROUND(E9 + COS(F9)*DbPA*0.5,4)</f>
         <v>177.57509999999999</v>
       </c>
       <c r="K9" s="10">
-        <f xml:space="preserve"> ROUND(E9 + COS(F9)*DbPA*1.5*SIGN(E9 - E10),4)</f>
+        <f xml:space="preserve"> ROUND(E9 + COS(F9)*DbPA*1.5,4)</f>
         <v>178.48560000000001</v>
       </c>
       <c r="L9" s="23">
@@ -2190,8 +2190,8 @@
         <v>194.3135</v>
       </c>
       <c r="M9" s="20">
-        <f>ROUND(MOD(H9,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.3914</v>
+        <f>ROUND(MOD(H9,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.24979999999999999</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="3"/>
@@ -2206,8 +2206,8 @@
         <v>256.86489999999998</v>
       </c>
       <c r="Q9" s="20">
-        <f>ROUND(MOD(I9,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.4831000000000003</v>
+        <f>ROUND(MOD(I9,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.3414999999999999</v>
       </c>
       <c r="R9" s="20">
         <f t="shared" si="4"/>
@@ -2222,8 +2222,8 @@
         <v>319.40940000000001</v>
       </c>
       <c r="U9" s="20">
-        <f>ROUND(MOD(J9,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.5747</v>
+        <f>ROUND(MOD(J9,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>2.4331999999999998</v>
       </c>
       <c r="V9" s="20">
         <f t="shared" si="5"/>
@@ -2238,8 +2238,8 @@
         <v>21.960699999999999</v>
       </c>
       <c r="Y9" s="20">
-        <f>ROUND(MOD(K9,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.38329999999999997</v>
+        <f>ROUND(MOD(K9,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.7583000000000002</v>
       </c>
       <c r="Z9" s="20">
         <f t="shared" si="6"/>
@@ -2285,19 +2285,19 @@
         <v>-4.5490000000000004</v>
       </c>
       <c r="H10" s="14">
-        <f xml:space="preserve"> ROUND(E10 - COS(F10)*DbPA*1.5*SIGN(E10 - E11),4)</f>
+        <f xml:space="preserve"> ROUND(E10 - COS(F10)*DbPA*1.5,4)</f>
         <v>175.25649999999999</v>
       </c>
       <c r="I10" s="14">
-        <f xml:space="preserve"> ROUND(E10 - COS(F10)*DbPA*0.5*SIGN(E10 - E11),4)</f>
+        <f xml:space="preserve"> ROUND(E10 - COS(F10)*DbPA*0.5,4)</f>
         <v>175.7852</v>
       </c>
       <c r="J10" s="14">
-        <f xml:space="preserve"> ROUND(E10 + COS(F10)*DbPA*0.5*SIGN(E10 - E11),4)</f>
+        <f xml:space="preserve"> ROUND(E10 + COS(F10)*DbPA*0.5,4)</f>
         <v>176.31399999999999</v>
       </c>
       <c r="K10" s="10">
-        <f xml:space="preserve"> ROUND(E10 + COS(F10)*DbPA*1.5*SIGN(E10 - E11),4)</f>
+        <f xml:space="preserve"> ROUND(E10 + COS(F10)*DbPA*1.5,4)</f>
         <v>176.84270000000001</v>
       </c>
       <c r="L10" s="23">
@@ -2305,8 +2305,8 @@
         <v>160.1216</v>
       </c>
       <c r="M10" s="20">
-        <f>ROUND(MOD(H10,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.7946</v>
+        <f>ROUND(MOD(H10,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.34689999999999999</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="3"/>
@@ -2321,8 +2321,8 @@
         <v>196.44319999999999</v>
       </c>
       <c r="Q10" s="20">
-        <f>ROUND(MOD(I10,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.4285999999999999</v>
+        <f>ROUND(MOD(I10,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.28699999999999998</v>
       </c>
       <c r="R10" s="20">
         <f t="shared" si="4"/>
@@ -2337,8 +2337,8 @@
         <v>232.77180000000001</v>
       </c>
       <c r="U10" s="20">
-        <f>ROUND(MOD(J10,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.0625999999999998</v>
+        <f>ROUND(MOD(J10,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.92100000000000004</v>
       </c>
       <c r="V10" s="20">
         <f t="shared" si="5"/>
@@ -2353,8 +2353,8 @@
         <v>269.09350000000001</v>
       </c>
       <c r="Y10" s="20">
-        <f>ROUND(MOD(K10,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.6966000000000001</v>
+        <f>ROUND(MOD(K10,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.5549999999999999</v>
       </c>
       <c r="Z10" s="20">
         <f t="shared" si="6"/>
@@ -2400,84 +2400,84 @@
         <v>-1.2717000000000001</v>
       </c>
       <c r="H11" s="14">
-        <f xml:space="preserve"> ROUND(E11 - COS(F11)*DbPA*1.5*SIGN(E11 - E12),4)</f>
+        <f xml:space="preserve"> ROUND(E11 - COS(F11)*DbPA*1.5,4)</f>
+        <v>175.32140000000001</v>
+      </c>
+      <c r="I11" s="14">
+        <f xml:space="preserve"> ROUND(E11 - COS(F11)*DbPA*0.5,4)</f>
+        <v>175.4693</v>
+      </c>
+      <c r="J11" s="14">
+        <f xml:space="preserve"> ROUND(E11 + COS(F11)*DbPA*0.5,4)</f>
+        <v>175.6173</v>
+      </c>
+      <c r="K11" s="10">
+        <f xml:space="preserve"> ROUND(E11 + COS(F11)*DbPA*1.5,4)</f>
         <v>175.76519999999999</v>
-      </c>
-      <c r="I11" s="14">
-        <f xml:space="preserve"> ROUND(E11 - COS(F11)*DbPA*0.5*SIGN(E11 - E12),4)</f>
-        <v>175.6173</v>
-      </c>
-      <c r="J11" s="14">
-        <f xml:space="preserve"> ROUND(E11 + COS(F11)*DbPA*0.5*SIGN(E11 - E12),4)</f>
-        <v>175.4693</v>
-      </c>
-      <c r="K11" s="10">
-        <f xml:space="preserve"> ROUND(E11 + COS(F11)*DbPA*1.5*SIGN(E11 - E12),4)</f>
-        <v>175.32140000000001</v>
       </c>
       <c r="L11" s="23">
         <f xml:space="preserve"> ROUND(MOD(H11,Lambda)*360/Lambda,4)</f>
-        <v>195.0692</v>
+        <v>164.58019999999999</v>
       </c>
       <c r="M11" s="20">
-        <f>ROUND(MOD(H11,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.4045999999999998</v>
+        <f>ROUND(MOD(H11,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.26910000000000001</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="3"/>
-        <v>5.8587999999999996</v>
+        <v>5.8440000000000003</v>
       </c>
       <c r="O11" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H11/(Lambda))^2),4)</f>
-        <v>-52.495899999999999</v>
+        <v>-52.473999999999997</v>
       </c>
       <c r="P11" s="23">
         <f>ROUND(MOD(I11,Lambda)*360/Lambda,4)</f>
-        <v>184.9085</v>
+        <v>174.74090000000001</v>
       </c>
       <c r="Q11" s="20">
-        <f>ROUND(MOD(I11,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.2273000000000001</v>
+        <f>ROUND(MOD(I11,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-9.1800000000000007E-2</v>
       </c>
       <c r="R11" s="20">
         <f t="shared" si="4"/>
-        <v>5.8539000000000003</v>
+        <v>5.8490000000000002</v>
       </c>
       <c r="S11" s="22">
         <f>ROUND(-10*LOG10((4*PI*I11/(Lambda))^2),4)</f>
-        <v>-52.488599999999998</v>
+        <v>-52.481299999999997</v>
       </c>
       <c r="T11" s="23">
         <f>ROUND(MOD(J11,Lambda)*360/Lambda,4)</f>
-        <v>174.74090000000001</v>
+        <v>184.9085</v>
       </c>
       <c r="U11" s="20">
-        <f>ROUND(MOD(J11,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.0497999999999998</v>
+        <f>ROUND(MOD(J11,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="V11" s="20">
         <f t="shared" si="5"/>
-        <v>5.8490000000000002</v>
+        <v>5.8539000000000003</v>
       </c>
       <c r="W11" s="22">
         <f>ROUND(-10*LOG10((4*PI*J11/(Lambda))^2),4)</f>
-        <v>-52.481299999999997</v>
+        <v>-52.488599999999998</v>
       </c>
       <c r="X11" s="23">
         <f>ROUND(MOD(K11,Lambda)*360/Lambda,4)</f>
-        <v>164.58019999999999</v>
+        <v>195.0692</v>
       </c>
       <c r="Y11" s="20">
-        <f>ROUND(MOD(K11,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.8725000000000001</v>
+        <f>ROUND(MOD(K11,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.26300000000000001</v>
       </c>
       <c r="Z11" s="20">
         <f t="shared" si="6"/>
-        <v>5.8440000000000003</v>
+        <v>5.8587999999999996</v>
       </c>
       <c r="AA11" s="22">
         <f>ROUND(10*LOG10((4*PI*K11/(Lambda))^2),4)</f>
-        <v>52.473999999999997</v>
+        <v>52.495899999999999</v>
       </c>
       <c r="AB11" s="18"/>
       <c r="AC11" s="14">
@@ -2515,84 +2515,84 @@
         <v>1.9942</v>
       </c>
       <c r="H12" s="14">
-        <f xml:space="preserve"> ROUND(E12 - COS(F12)*DbPA*1.5*SIGN(E12 - E13),4)</f>
+        <f xml:space="preserve"> ROUND(E12 - COS(F12)*DbPA*1.5,4)</f>
+        <v>175.95400000000001</v>
+      </c>
+      <c r="I12" s="14">
+        <f xml:space="preserve"> ROUND(E12 - COS(F12)*DbPA*0.5,4)</f>
+        <v>175.72200000000001</v>
+      </c>
+      <c r="J12" s="14">
+        <f xml:space="preserve"> ROUND(E12 + COS(F12)*DbPA*0.5,4)</f>
+        <v>175.49</v>
+      </c>
+      <c r="K12" s="10">
+        <f xml:space="preserve"> ROUND(E12 + COS(F12)*DbPA*1.5,4)</f>
         <v>175.25800000000001</v>
-      </c>
-      <c r="I12" s="14">
-        <f xml:space="preserve"> ROUND(E12 - COS(F12)*DbPA*0.5*SIGN(E12 - E13),4)</f>
-        <v>175.49</v>
-      </c>
-      <c r="J12" s="14">
-        <f xml:space="preserve"> ROUND(E12 + COS(F12)*DbPA*0.5*SIGN(E12 - E13),4)</f>
-        <v>175.72200000000001</v>
-      </c>
-      <c r="K12" s="10">
-        <f xml:space="preserve"> ROUND(E12 + COS(F12)*DbPA*1.5*SIGN(E12 - E13),4)</f>
-        <v>175.95400000000001</v>
       </c>
       <c r="L12" s="23">
         <f xml:space="preserve"> ROUND(MOD(H12,Lambda)*360/Lambda,4)</f>
-        <v>160.22460000000001</v>
+        <v>208.03980000000001</v>
       </c>
       <c r="M12" s="20">
-        <f>ROUND(MOD(H12,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.7964000000000002</v>
+        <f>ROUND(MOD(H12,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.4894</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="3"/>
-        <v>5.8418999999999999</v>
+        <v>5.8651</v>
       </c>
       <c r="O12" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H12/(Lambda))^2),4)</f>
-        <v>-52.470799999999997</v>
+        <v>-52.505299999999998</v>
       </c>
       <c r="P12" s="23">
         <f>ROUND(MOD(I12,Lambda)*360/Lambda,4)</f>
-        <v>176.16300000000001</v>
+        <v>192.10140000000001</v>
       </c>
       <c r="Q12" s="20">
-        <f>ROUND(MOD(I12,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.0746000000000002</v>
+        <f>ROUND(MOD(I12,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.2112</v>
       </c>
       <c r="R12" s="20">
         <f t="shared" si="4"/>
-        <v>5.8497000000000003</v>
+        <v>5.8574000000000002</v>
       </c>
       <c r="S12" s="22">
         <f>ROUND(-10*LOG10((4*PI*I12/(Lambda))^2),4)</f>
-        <v>-52.482300000000002</v>
+        <v>-52.4938</v>
       </c>
       <c r="T12" s="23">
         <f>ROUND(MOD(J12,Lambda)*360/Lambda,4)</f>
-        <v>192.10140000000001</v>
+        <v>176.16300000000001</v>
       </c>
       <c r="U12" s="20">
-        <f>ROUND(MOD(J12,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.3527999999999998</v>
+        <f>ROUND(MOD(J12,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="V12" s="20">
         <f t="shared" si="5"/>
-        <v>5.8574000000000002</v>
+        <v>5.8497000000000003</v>
       </c>
       <c r="W12" s="22">
         <f>ROUND(-10*LOG10((4*PI*J12/(Lambda))^2),4)</f>
-        <v>-52.4938</v>
+        <v>-52.482300000000002</v>
       </c>
       <c r="X12" s="23">
         <f>ROUND(MOD(K12,Lambda)*360/Lambda,4)</f>
-        <v>208.03980000000001</v>
+        <v>160.22460000000001</v>
       </c>
       <c r="Y12" s="20">
-        <f>ROUND(MOD(K12,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.6309999999999998</v>
+        <f>ROUND(MOD(K12,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.34510000000000002</v>
       </c>
       <c r="Z12" s="20">
         <f t="shared" si="6"/>
-        <v>5.8651</v>
+        <v>5.8418999999999999</v>
       </c>
       <c r="AA12" s="22">
         <f>ROUND(10*LOG10((4*PI*K12/(Lambda))^2),4)</f>
-        <v>52.505299999999998</v>
+        <v>52.470799999999997</v>
       </c>
       <c r="AB12" s="18"/>
       <c r="AC12" s="14">
@@ -2630,84 +2630,84 @@
         <v>5.2714999999999996</v>
       </c>
       <c r="H13" s="14">
-        <f xml:space="preserve"> ROUND(E13 - COS(F13)*DbPA*1.5*SIGN(E13 - E14),4)</f>
+        <f xml:space="preserve"> ROUND(E13 - COS(F13)*DbPA*1.5,4)</f>
+        <v>177.15559999999999</v>
+      </c>
+      <c r="I13" s="14">
+        <f xml:space="preserve"> ROUND(E13 - COS(F13)*DbPA*0.5,4)</f>
+        <v>176.54310000000001</v>
+      </c>
+      <c r="J13" s="14">
+        <f xml:space="preserve"> ROUND(E13 + COS(F13)*DbPA*0.5,4)</f>
+        <v>175.9307</v>
+      </c>
+      <c r="K13" s="10">
+        <f xml:space="preserve"> ROUND(E13 + COS(F13)*DbPA*1.5,4)</f>
         <v>175.31819999999999</v>
-      </c>
-      <c r="I13" s="14">
-        <f xml:space="preserve"> ROUND(E13 - COS(F13)*DbPA*0.5*SIGN(E13 - E14),4)</f>
-        <v>175.9307</v>
-      </c>
-      <c r="J13" s="14">
-        <f xml:space="preserve"> ROUND(E13 + COS(F13)*DbPA*0.5*SIGN(E13 - E14),4)</f>
-        <v>176.54310000000001</v>
-      </c>
-      <c r="K13" s="10">
-        <f xml:space="preserve"> ROUND(E13 + COS(F13)*DbPA*1.5*SIGN(E13 - E14),4)</f>
-        <v>177.15559999999999</v>
       </c>
       <c r="L13" s="23">
         <f xml:space="preserve"> ROUND(MOD(H13,Lambda)*360/Lambda,4)</f>
-        <v>164.3603</v>
+        <v>290.58969999999999</v>
       </c>
       <c r="M13" s="20">
-        <f>ROUND(MOD(H13,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.8685999999999998</v>
+        <f>ROUND(MOD(H13,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.9301999999999999</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="3"/>
-        <v>5.8438999999999997</v>
+        <v>5.9051999999999998</v>
       </c>
       <c r="O13" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H13/(Lambda))^2),4)</f>
-        <v>-52.473799999999997</v>
+        <v>-52.564399999999999</v>
       </c>
       <c r="P13" s="23">
         <f>ROUND(MOD(I13,Lambda)*360/Lambda,4)</f>
-        <v>206.4391</v>
+        <v>248.511</v>
       </c>
       <c r="Q13" s="20">
-        <f>ROUND(MOD(I13,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.6030000000000002</v>
+        <f>ROUND(MOD(I13,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.1957</v>
       </c>
       <c r="R13" s="20">
         <f t="shared" si="4"/>
-        <v>5.8643999999999998</v>
+        <v>5.8848000000000003</v>
       </c>
       <c r="S13" s="22">
         <f>ROUND(-10*LOG10((4*PI*I13/(Lambda))^2),4)</f>
-        <v>-52.504100000000001</v>
+        <v>-52.534300000000002</v>
       </c>
       <c r="T13" s="23">
         <f>ROUND(MOD(J13,Lambda)*360/Lambda,4)</f>
-        <v>248.511</v>
+        <v>206.4391</v>
       </c>
       <c r="U13" s="20">
-        <f>ROUND(MOD(J13,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.3372999999999999</v>
+        <f>ROUND(MOD(J13,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.46139999999999998</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="5"/>
-        <v>5.8848000000000003</v>
+        <v>5.8643999999999998</v>
       </c>
       <c r="W13" s="22">
         <f>ROUND(-10*LOG10((4*PI*J13/(Lambda))^2),4)</f>
-        <v>-52.534300000000002</v>
+        <v>-52.504100000000001</v>
       </c>
       <c r="X13" s="23">
         <f>ROUND(MOD(K13,Lambda)*360/Lambda,4)</f>
-        <v>290.58969999999999</v>
+        <v>164.3603</v>
       </c>
       <c r="Y13" s="20">
-        <f>ROUND(MOD(K13,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.0716999999999999</v>
+        <f>ROUND(MOD(K13,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.27300000000000002</v>
       </c>
       <c r="Z13" s="20">
         <f t="shared" si="6"/>
-        <v>5.9051999999999998</v>
+        <v>5.8438999999999997</v>
       </c>
       <c r="AA13" s="22">
         <f>ROUND(10*LOG10((4*PI*K13/(Lambda))^2),4)</f>
-        <v>52.564399999999999</v>
+        <v>52.473799999999997</v>
       </c>
       <c r="AB13" s="18"/>
       <c r="AC13" s="14">
@@ -2745,84 +2745,84 @@
         <v>8.5831999999999997</v>
       </c>
       <c r="H14" s="14">
-        <f xml:space="preserve"> ROUND(E14 - COS(F14)*DbPA*1.5*SIGN(E14 - E15),4)</f>
+        <f xml:space="preserve"> ROUND(E14 - COS(F14)*DbPA*1.5,4)</f>
+        <v>178.92259999999999</v>
+      </c>
+      <c r="I14" s="14">
+        <f xml:space="preserve"> ROUND(E14 - COS(F14)*DbPA*0.5,4)</f>
+        <v>177.92769999999999</v>
+      </c>
+      <c r="J14" s="14">
+        <f xml:space="preserve"> ROUND(E14 + COS(F14)*DbPA*0.5,4)</f>
+        <v>176.93270000000001</v>
+      </c>
+      <c r="K14" s="10">
+        <f xml:space="preserve"> ROUND(E14 + COS(F14)*DbPA*1.5,4)</f>
         <v>175.93780000000001</v>
-      </c>
-      <c r="I14" s="14">
-        <f xml:space="preserve"> ROUND(E14 - COS(F14)*DbPA*0.5*SIGN(E14 - E15),4)</f>
-        <v>176.93270000000001</v>
-      </c>
-      <c r="J14" s="14">
-        <f xml:space="preserve"> ROUND(E14 + COS(F14)*DbPA*0.5*SIGN(E14 - E15),4)</f>
-        <v>177.92769999999999</v>
-      </c>
-      <c r="K14" s="10">
-        <f xml:space="preserve"> ROUND(E14 + COS(F14)*DbPA*1.5*SIGN(E14 - E15),4)</f>
-        <v>178.92259999999999</v>
       </c>
       <c r="L14" s="23">
         <f xml:space="preserve"> ROUND(MOD(H14,Lambda)*360/Lambda,4)</f>
-        <v>206.92689999999999</v>
+        <v>51.982599999999998</v>
       </c>
       <c r="M14" s="20">
-        <f>ROUND(MOD(H14,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.6116000000000001</v>
+        <f>ROUND(MOD(H14,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.2343000000000002</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="3"/>
-        <v>5.8646000000000003</v>
+        <v>5.9641000000000002</v>
       </c>
       <c r="O14" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H14/(Lambda))^2),4)</f>
-        <v>-52.5045</v>
+        <v>-52.650599999999997</v>
       </c>
       <c r="P14" s="23">
         <f>ROUND(MOD(I14,Lambda)*360/Lambda,4)</f>
-        <v>275.2765</v>
+        <v>343.63299999999998</v>
       </c>
       <c r="Q14" s="20">
-        <f>ROUND(MOD(I14,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.8045</v>
+        <f>ROUND(MOD(I14,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>2.8559000000000001</v>
       </c>
       <c r="R14" s="20">
         <f t="shared" si="4"/>
-        <v>5.8978000000000002</v>
+        <v>5.9309000000000003</v>
       </c>
       <c r="S14" s="22">
         <f>ROUND(-10*LOG10((4*PI*I14/(Lambda))^2),4)</f>
-        <v>-52.553400000000003</v>
+        <v>-52.6021</v>
       </c>
       <c r="T14" s="23">
         <f>ROUND(MOD(J14,Lambda)*360/Lambda,4)</f>
-        <v>343.63299999999998</v>
+        <v>275.2765</v>
       </c>
       <c r="U14" s="20">
-        <f>ROUND(MOD(J14,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.9974999999999996</v>
+        <f>ROUND(MOD(J14,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.6629</v>
       </c>
       <c r="V14" s="20">
         <f t="shared" si="5"/>
-        <v>5.9309000000000003</v>
+        <v>5.8978000000000002</v>
       </c>
       <c r="W14" s="22">
         <f>ROUND(-10*LOG10((4*PI*J14/(Lambda))^2),4)</f>
-        <v>-52.6021</v>
+        <v>-52.553400000000003</v>
       </c>
       <c r="X14" s="23">
         <f>ROUND(MOD(K14,Lambda)*360/Lambda,4)</f>
-        <v>51.982599999999998</v>
+        <v>206.92689999999999</v>
       </c>
       <c r="Y14" s="20">
-        <f>ROUND(MOD(K14,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.9073</v>
+        <f>ROUND(MOD(K14,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.47</v>
       </c>
       <c r="Z14" s="20">
         <f t="shared" si="6"/>
-        <v>5.9641000000000002</v>
+        <v>5.8646000000000003</v>
       </c>
       <c r="AA14" s="22">
         <f>ROUND(10*LOG10((4*PI*K14/(Lambda))^2),4)</f>
-        <v>52.650599999999997</v>
+        <v>52.5045</v>
       </c>
       <c r="AB14" s="18"/>
       <c r="AC14" s="14">
@@ -2860,84 +2860,84 @@
         <v>11.952199999999999</v>
       </c>
       <c r="H15" s="14">
-        <f xml:space="preserve"> ROUND(E15 - COS(F15)*DbPA*1.5*SIGN(E15 - E16),4)</f>
-        <v>177.1035</v>
+        <f xml:space="preserve"> ROUND(E15 - COS(F15)*DbPA*1.5,4)</f>
+        <v>181.24539999999999</v>
       </c>
       <c r="I15" s="14">
-        <f xml:space="preserve"> ROUND(E15 - COS(F15)*DbPA*0.5*SIGN(E15 - E16),4)</f>
+        <f xml:space="preserve"> ROUND(E15 - COS(F15)*DbPA*0.5,4)</f>
+        <v>179.8647</v>
+      </c>
+      <c r="J15" s="14">
+        <f xml:space="preserve"> ROUND(E15 + COS(F15)*DbPA*0.5,4)</f>
         <v>178.48410000000001</v>
       </c>
-      <c r="J15" s="14">
-        <f xml:space="preserve"> ROUND(E15 + COS(F15)*DbPA*0.5*SIGN(E15 - E16),4)</f>
-        <v>179.8647</v>
-      </c>
       <c r="K15" s="10">
-        <f xml:space="preserve"> ROUND(E15 + COS(F15)*DbPA*1.5*SIGN(E15 - E16),4)</f>
-        <v>181.24529999999999</v>
+        <f xml:space="preserve"> ROUND(E15 + COS(F15)*DbPA*1.5,4)</f>
+        <v>177.10339999999999</v>
       </c>
       <c r="L15" s="23">
         <f xml:space="preserve"> ROUND(MOD(H15,Lambda)*360/Lambda,4)</f>
-        <v>287.01049999999998</v>
+        <v>211.559</v>
       </c>
       <c r="M15" s="20">
-        <f>ROUND(MOD(H15,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.0092999999999996</v>
+        <f>ROUND(MOD(H15,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.55079999999999996</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="3"/>
-        <v>5.9035000000000002</v>
+        <v>6.0415000000000001</v>
       </c>
       <c r="O15" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H15/(Lambda))^2),4)</f>
-        <v>-52.561799999999998</v>
+        <v>-52.762599999999999</v>
       </c>
       <c r="P15" s="23">
         <f>ROUND(MOD(I15,Lambda)*360/Lambda,4)</f>
-        <v>21.857700000000001</v>
+        <v>116.70489999999999</v>
       </c>
       <c r="Q15" s="20">
-        <f>ROUND(MOD(I15,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.38150000000000001</v>
+        <f>ROUND(MOD(I15,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-1.1047</v>
       </c>
       <c r="R15" s="20">
         <f t="shared" si="4"/>
-        <v>5.9494999999999996</v>
+        <v>5.9954999999999998</v>
       </c>
       <c r="S15" s="22">
         <f>ROUND(-10*LOG10((4*PI*I15/(Lambda))^2),4)</f>
-        <v>-52.629300000000001</v>
+        <v>-52.696199999999997</v>
       </c>
       <c r="T15" s="23">
         <f>ROUND(MOD(J15,Lambda)*360/Lambda,4)</f>
-        <v>116.70489999999999</v>
+        <v>21.857700000000001</v>
       </c>
       <c r="U15" s="20">
-        <f>ROUND(MOD(J15,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.0369000000000002</v>
+        <f>ROUND(MOD(J15,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.7601</v>
       </c>
       <c r="V15" s="20">
         <f t="shared" si="5"/>
-        <v>5.9954999999999998</v>
+        <v>5.9494999999999996</v>
       </c>
       <c r="W15" s="22">
         <f>ROUND(-10*LOG10((4*PI*J15/(Lambda))^2),4)</f>
-        <v>-52.696199999999997</v>
+        <v>-52.629300000000001</v>
       </c>
       <c r="X15" s="23">
         <f>ROUND(MOD(K15,Lambda)*360/Lambda,4)</f>
-        <v>211.5521</v>
+        <v>287.00360000000001</v>
       </c>
       <c r="Y15" s="20">
-        <f>ROUND(MOD(K15,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.6922999999999999</v>
+        <f>ROUND(MOD(K15,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.8675999999999999</v>
       </c>
       <c r="Z15" s="20">
         <f t="shared" si="6"/>
-        <v>6.0415000000000001</v>
+        <v>5.9034000000000004</v>
       </c>
       <c r="AA15" s="22">
         <f>ROUND(10*LOG10((4*PI*K15/(Lambda))^2),4)</f>
-        <v>52.762599999999999</v>
+        <v>52.561799999999998</v>
       </c>
       <c r="AB15" s="18"/>
       <c r="AC15" s="14">
@@ -2975,84 +2975,84 @@
         <v>15.4071</v>
       </c>
       <c r="H16" s="14">
-        <f xml:space="preserve"> ROUND(E16 - COS(F16)*DbPA*1.5*SIGN(E16 - E17),4)</f>
-        <v>178.797</v>
+        <f xml:space="preserve"> ROUND(E16 - COS(F16)*DbPA*1.5,4)</f>
+        <v>184.1105</v>
       </c>
       <c r="I16" s="14">
-        <f xml:space="preserve"> ROUND(E16 - COS(F16)*DbPA*0.5*SIGN(E16 - E17),4)</f>
+        <f xml:space="preserve"> ROUND(E16 - COS(F16)*DbPA*0.5,4)</f>
+        <v>182.33930000000001</v>
+      </c>
+      <c r="J16" s="14">
+        <f xml:space="preserve"> ROUND(E16 + COS(F16)*DbPA*0.5,4)</f>
         <v>180.56809999999999</v>
       </c>
-      <c r="J16" s="14">
-        <f xml:space="preserve"> ROUND(E16 + COS(F16)*DbPA*0.5*SIGN(E16 - E17),4)</f>
-        <v>182.33930000000001</v>
-      </c>
       <c r="K16" s="10">
-        <f xml:space="preserve"> ROUND(E16 + COS(F16)*DbPA*1.5*SIGN(E16 - E17),4)</f>
-        <v>184.1104</v>
+        <f xml:space="preserve"> ROUND(E16 + COS(F16)*DbPA*1.5,4)</f>
+        <v>178.79689999999999</v>
       </c>
       <c r="L16" s="23">
         <f xml:space="preserve"> ROUND(MOD(H16,Lambda)*360/Lambda,4)</f>
-        <v>43.353900000000003</v>
+        <v>48.391399999999997</v>
       </c>
       <c r="M16" s="20">
-        <f>ROUND(MOD(H16,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.75670000000000004</v>
+        <f>ROUND(MOD(H16,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.2970000000000002</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="3"/>
-        <v>5.9599000000000002</v>
+        <v>6.1369999999999996</v>
       </c>
       <c r="O16" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H16/(Lambda))^2),4)</f>
-        <v>-52.644500000000001</v>
+        <v>-52.898800000000001</v>
       </c>
       <c r="P16" s="23">
         <f>ROUND(MOD(I16,Lambda)*360/Lambda,4)</f>
-        <v>165.02850000000001</v>
+        <v>286.7099</v>
       </c>
       <c r="Q16" s="20">
-        <f>ROUND(MOD(I16,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.8803000000000001</v>
+        <f>ROUND(MOD(I16,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.8624000000000001</v>
       </c>
       <c r="R16" s="20">
         <f t="shared" si="4"/>
-        <v>6.0189000000000004</v>
+        <v>6.0780000000000003</v>
       </c>
       <c r="S16" s="22">
         <f>ROUND(-10*LOG10((4*PI*I16/(Lambda))^2),4)</f>
-        <v>-52.7301</v>
+        <v>-52.814900000000002</v>
       </c>
       <c r="T16" s="23">
         <f>ROUND(MOD(J16,Lambda)*360/Lambda,4)</f>
-        <v>286.7099</v>
+        <v>165.02850000000001</v>
       </c>
       <c r="U16" s="20">
-        <f>ROUND(MOD(J16,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.0039999999999996</v>
+        <f>ROUND(MOD(J16,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.26129999999999998</v>
       </c>
       <c r="V16" s="20">
         <f t="shared" si="5"/>
-        <v>6.0780000000000003</v>
+        <v>6.0189000000000004</v>
       </c>
       <c r="W16" s="22">
         <f>ROUND(-10*LOG10((4*PI*J16/(Lambda))^2),4)</f>
-        <v>-52.814900000000002</v>
+        <v>-52.7301</v>
       </c>
       <c r="X16" s="23">
         <f>ROUND(MOD(K16,Lambda)*360/Lambda,4)</f>
-        <v>48.384500000000003</v>
+        <v>43.347000000000001</v>
       </c>
       <c r="Y16" s="20">
-        <f>ROUND(MOD(K16,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.84450000000000003</v>
+        <f>ROUND(MOD(K16,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.3849999999999998</v>
       </c>
       <c r="Z16" s="20">
         <f t="shared" si="6"/>
-        <v>6.1369999999999996</v>
+        <v>5.9599000000000002</v>
       </c>
       <c r="AA16" s="22">
         <f>ROUND(10*LOG10((4*PI*K16/(Lambda))^2),4)</f>
-        <v>52.898800000000001</v>
+        <v>52.644500000000001</v>
       </c>
       <c r="AB16" s="18"/>
       <c r="AC16" s="14">
@@ -3090,84 +3090,84 @@
         <v>18.965199999999999</v>
       </c>
       <c r="H17" s="14">
-        <f xml:space="preserve"> ROUND(E17 - COS(F17)*DbPA*1.5*SIGN(E17 - E18),4)</f>
+        <f xml:space="preserve"> ROUND(E17 - COS(F17)*DbPA*1.5,4)</f>
+        <v>187.4983</v>
+      </c>
+      <c r="I17" s="14">
+        <f xml:space="preserve"> ROUND(E17 - COS(F17)*DbPA*0.5,4)</f>
+        <v>185.33170000000001</v>
+      </c>
+      <c r="J17" s="14">
+        <f xml:space="preserve"> ROUND(E17 + COS(F17)*DbPA*0.5,4)</f>
+        <v>183.1651</v>
+      </c>
+      <c r="K17" s="10">
+        <f xml:space="preserve"> ROUND(E17 + COS(F17)*DbPA*1.5,4)</f>
         <v>180.99850000000001</v>
-      </c>
-      <c r="I17" s="14">
-        <f xml:space="preserve"> ROUND(E17 - COS(F17)*DbPA*0.5*SIGN(E17 - E18),4)</f>
-        <v>183.1651</v>
-      </c>
-      <c r="J17" s="14">
-        <f xml:space="preserve"> ROUND(E17 + COS(F17)*DbPA*0.5*SIGN(E17 - E18),4)</f>
-        <v>185.33170000000001</v>
-      </c>
-      <c r="K17" s="10">
-        <f xml:space="preserve"> ROUND(E17 + COS(F17)*DbPA*1.5*SIGN(E17 - E18),4)</f>
-        <v>187.4983</v>
       </c>
       <c r="L17" s="23">
         <f xml:space="preserve"> ROUND(MOD(H17,Lambda)*360/Lambda,4)</f>
-        <v>194.59700000000001</v>
+        <v>281.13319999999999</v>
       </c>
       <c r="M17" s="20">
-        <f>ROUND(MOD(H17,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.3963999999999999</v>
+        <f>ROUND(MOD(H17,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.7650999999999999</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="3"/>
-        <v>6.0332999999999997</v>
+        <v>6.2499000000000002</v>
       </c>
       <c r="O17" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H17/(Lambda))^2),4)</f>
-        <v>-52.750799999999998</v>
+        <v>-53.057200000000002</v>
       </c>
       <c r="P17" s="23">
         <f>ROUND(MOD(I17,Lambda)*360/Lambda,4)</f>
-        <v>343.44240000000002</v>
+        <v>132.2878</v>
       </c>
       <c r="Q17" s="20">
-        <f>ROUND(MOD(I17,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.9942000000000002</v>
+        <f>ROUND(MOD(I17,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.8327</v>
       </c>
       <c r="R17" s="20">
         <f t="shared" si="4"/>
-        <v>6.1055000000000001</v>
+        <v>6.1776999999999997</v>
       </c>
       <c r="S17" s="22">
         <f>ROUND(-10*LOG10((4*PI*I17/(Lambda))^2),4)</f>
-        <v>-52.854100000000003</v>
+        <v>-52.956299999999999</v>
       </c>
       <c r="T17" s="23">
         <f>ROUND(MOD(J17,Lambda)*360/Lambda,4)</f>
-        <v>132.2878</v>
+        <v>343.44240000000002</v>
       </c>
       <c r="U17" s="20">
-        <f>ROUND(MOD(J17,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.3089</v>
+        <f>ROUND(MOD(J17,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>2.8525999999999998</v>
       </c>
       <c r="V17" s="20">
         <f t="shared" si="5"/>
-        <v>6.1776999999999997</v>
+        <v>6.1055000000000001</v>
       </c>
       <c r="W17" s="22">
         <f>ROUND(-10*LOG10((4*PI*J17/(Lambda))^2),4)</f>
-        <v>-52.956299999999999</v>
+        <v>-52.854100000000003</v>
       </c>
       <c r="X17" s="23">
         <f>ROUND(MOD(K17,Lambda)*360/Lambda,4)</f>
-        <v>281.13319999999999</v>
+        <v>194.59700000000001</v>
       </c>
       <c r="Y17" s="20">
-        <f>ROUND(MOD(K17,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.9066999999999998</v>
+        <f>ROUND(MOD(K17,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.25480000000000003</v>
       </c>
       <c r="Z17" s="20">
         <f t="shared" si="6"/>
-        <v>6.2499000000000002</v>
+        <v>6.0332999999999997</v>
       </c>
       <c r="AA17" s="22">
         <f>ROUND(10*LOG10((4*PI*K17/(Lambda))^2),4)</f>
-        <v>53.057200000000002</v>
+        <v>52.750799999999998</v>
       </c>
       <c r="AB17" s="18"/>
       <c r="AC17" s="14">
@@ -3205,84 +3205,84 @@
         <v>22.660799999999998</v>
       </c>
       <c r="H18" s="14">
-        <f xml:space="preserve"> ROUND(E18 - COS(F18)*DbPA*1.5*SIGN(E18 - E19),4)</f>
+        <f xml:space="preserve"> ROUND(E18 - COS(F18)*DbPA*1.5,4)</f>
+        <v>191.3879</v>
+      </c>
+      <c r="I18" s="14">
+        <f xml:space="preserve"> ROUND(E18 - COS(F18)*DbPA*0.5,4)</f>
+        <v>188.8194</v>
+      </c>
+      <c r="J18" s="14">
+        <f xml:space="preserve"> ROUND(E18 + COS(F18)*DbPA*0.5,4)</f>
+        <v>186.251</v>
+      </c>
+      <c r="K18" s="10">
+        <f xml:space="preserve"> ROUND(E18 + COS(F18)*DbPA*1.5,4)</f>
         <v>183.6825</v>
-      </c>
-      <c r="I18" s="14">
-        <f xml:space="preserve"> ROUND(E18 - COS(F18)*DbPA*0.5*SIGN(E18 - E19),4)</f>
-        <v>186.251</v>
-      </c>
-      <c r="J18" s="14">
-        <f xml:space="preserve"> ROUND(E18 + COS(F18)*DbPA*0.5*SIGN(E18 - E19),4)</f>
-        <v>188.8194</v>
-      </c>
-      <c r="K18" s="10">
-        <f xml:space="preserve"> ROUND(E18 + COS(F18)*DbPA*1.5*SIGN(E18 - E19),4)</f>
-        <v>191.3879</v>
       </c>
       <c r="L18" s="23">
         <f xml:space="preserve"> ROUND(MOD(H18,Lambda)*360/Lambda,4)</f>
-        <v>18.9878</v>
+        <v>188.34870000000001</v>
       </c>
       <c r="M18" s="20">
-        <f>ROUND(MOD(H18,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.33139999999999997</v>
+        <f>ROUND(MOD(H18,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.1457</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="3"/>
-        <v>6.1227999999999998</v>
+        <v>6.3795999999999999</v>
       </c>
       <c r="O18" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H18/(Lambda))^2),4)</f>
-        <v>-52.878599999999999</v>
+        <v>-53.235599999999998</v>
       </c>
       <c r="P18" s="23">
         <f>ROUND(MOD(I18,Lambda)*360/Lambda,4)</f>
-        <v>195.44370000000001</v>
+        <v>11.892799999999999</v>
       </c>
       <c r="Q18" s="20">
-        <f>ROUND(MOD(I18,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.4110999999999998</v>
+        <f>ROUND(MOD(I18,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.9340000000000002</v>
       </c>
       <c r="R18" s="20">
         <f t="shared" si="4"/>
-        <v>6.2084000000000001</v>
+        <v>6.2939999999999996</v>
       </c>
       <c r="S18" s="22">
         <f>ROUND(-10*LOG10((4*PI*I18/(Lambda))^2),4)</f>
-        <v>-52.999200000000002</v>
+        <v>-53.118200000000002</v>
       </c>
       <c r="T18" s="23">
         <f>ROUND(MOD(J18,Lambda)*360/Lambda,4)</f>
-        <v>11.892799999999999</v>
+        <v>195.44370000000001</v>
       </c>
       <c r="U18" s="20">
-        <f>ROUND(MOD(J18,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.20760000000000001</v>
+        <f>ROUND(MOD(J18,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.26950000000000002</v>
       </c>
       <c r="V18" s="20">
         <f t="shared" si="5"/>
-        <v>6.2939999999999996</v>
+        <v>6.2084000000000001</v>
       </c>
       <c r="W18" s="22">
         <f>ROUND(-10*LOG10((4*PI*J18/(Lambda))^2),4)</f>
-        <v>-53.118200000000002</v>
+        <v>-52.999200000000002</v>
       </c>
       <c r="X18" s="23">
         <f>ROUND(MOD(K18,Lambda)*360/Lambda,4)</f>
-        <v>188.34870000000001</v>
+        <v>18.9878</v>
       </c>
       <c r="Y18" s="20">
-        <f>ROUND(MOD(K18,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.2873000000000001</v>
+        <f>ROUND(MOD(K18,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.8102</v>
       </c>
       <c r="Z18" s="20">
         <f t="shared" si="6"/>
-        <v>6.3795999999999999</v>
+        <v>6.1227999999999998</v>
       </c>
       <c r="AA18" s="22">
         <f>ROUND(10*LOG10((4*PI*K18/(Lambda))^2),4)</f>
-        <v>53.235599999999998</v>
+        <v>52.878599999999999</v>
       </c>
       <c r="AB18" s="18"/>
       <c r="AC18" s="14">
@@ -3320,84 +3320,84 @@
         <v>26.528300000000002</v>
       </c>
       <c r="H19" s="14">
-        <f xml:space="preserve"> ROUND(E19 - COS(F19)*DbPA*1.5*SIGN(E19 - E20),4)</f>
+        <f xml:space="preserve"> ROUND(E19 - COS(F19)*DbPA*1.5,4)</f>
+        <v>195.75530000000001</v>
+      </c>
+      <c r="I19" s="14">
+        <f xml:space="preserve"> ROUND(E19 - COS(F19)*DbPA*0.5,4)</f>
+        <v>192.77770000000001</v>
+      </c>
+      <c r="J19" s="14">
+        <f xml:space="preserve"> ROUND(E19 + COS(F19)*DbPA*0.5,4)</f>
+        <v>189.80009999999999</v>
+      </c>
+      <c r="K19" s="10">
+        <f xml:space="preserve"> ROUND(E19 + COS(F19)*DbPA*1.5,4)</f>
         <v>186.82249999999999</v>
-      </c>
-      <c r="I19" s="14">
-        <f xml:space="preserve"> ROUND(E19 - COS(F19)*DbPA*0.5*SIGN(E19 - E20),4)</f>
-        <v>189.80009999999999</v>
-      </c>
-      <c r="J19" s="14">
-        <f xml:space="preserve"> ROUND(E19 + COS(F19)*DbPA*0.5*SIGN(E19 - E20),4)</f>
-        <v>192.77770000000001</v>
-      </c>
-      <c r="K19" s="10">
-        <f xml:space="preserve"> ROUND(E19 + COS(F19)*DbPA*1.5*SIGN(E19 - E20),4)</f>
-        <v>195.75530000000001</v>
       </c>
       <c r="L19" s="23">
         <f xml:space="preserve"> ROUND(MOD(H19,Lambda)*360/Lambda,4)</f>
-        <v>234.70580000000001</v>
+        <v>128.38910000000001</v>
       </c>
       <c r="M19" s="20">
-        <f>ROUND(MOD(H19,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.0964</v>
+        <f>ROUND(MOD(H19,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-0.90080000000000005</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="3"/>
-        <v>6.2274000000000003</v>
+        <v>6.5251999999999999</v>
       </c>
       <c r="O19" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H19/(Lambda))^2),4)</f>
-        <v>-53.0259</v>
+        <v>-53.4315</v>
       </c>
       <c r="P19" s="23">
         <f>ROUND(MOD(I19,Lambda)*360/Lambda,4)</f>
-        <v>79.266900000000007</v>
+        <v>283.82799999999997</v>
       </c>
       <c r="Q19" s="20">
-        <f>ROUND(MOD(I19,Lambda)*2*PI/Lambda,4)</f>
-        <v>1.3835</v>
+        <f>ROUND(MOD(I19,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>1.8121</v>
       </c>
       <c r="R19" s="20">
         <f t="shared" si="4"/>
-        <v>6.3266999999999998</v>
+        <v>6.4259000000000004</v>
       </c>
       <c r="S19" s="22">
         <f>ROUND(-10*LOG10((4*PI*I19/(Lambda))^2),4)</f>
-        <v>-53.163200000000003</v>
+        <v>-53.298400000000001</v>
       </c>
       <c r="T19" s="23">
         <f>ROUND(MOD(J19,Lambda)*360/Lambda,4)</f>
-        <v>283.82799999999997</v>
+        <v>79.266900000000007</v>
       </c>
       <c r="U19" s="20">
-        <f>ROUND(MOD(J19,Lambda)*2*PI/Lambda,4)</f>
-        <v>4.9537000000000004</v>
+        <f>ROUND(MOD(J19,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-1.7581</v>
       </c>
       <c r="V19" s="20">
         <f t="shared" si="5"/>
-        <v>6.4259000000000004</v>
+        <v>6.3266999999999998</v>
       </c>
       <c r="W19" s="22">
         <f>ROUND(-10*LOG10((4*PI*J19/(Lambda))^2),4)</f>
-        <v>-53.298400000000001</v>
+        <v>-53.163200000000003</v>
       </c>
       <c r="X19" s="23">
         <f>ROUND(MOD(K19,Lambda)*360/Lambda,4)</f>
-        <v>128.38910000000001</v>
+        <v>234.70580000000001</v>
       </c>
       <c r="Y19" s="20">
-        <f>ROUND(MOD(K19,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.2408000000000001</v>
+        <f>ROUND(MOD(K19,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.95479999999999998</v>
       </c>
       <c r="Z19" s="20">
         <f t="shared" si="6"/>
-        <v>6.5251999999999999</v>
+        <v>6.2274000000000003</v>
       </c>
       <c r="AA19" s="22">
         <f>ROUND(10*LOG10((4*PI*K19/(Lambda))^2),4)</f>
-        <v>53.4315</v>
+        <v>53.0259</v>
       </c>
       <c r="AB19" s="18"/>
       <c r="AC19" s="14">
@@ -3435,84 +3435,84 @@
         <v>30.607700000000001</v>
       </c>
       <c r="H20" s="14">
-        <f xml:space="preserve"> ROUND(E20 - COS(F20)*DbPA*1.5*SIGN(E20 - E21),4)</f>
+        <f xml:space="preserve"> ROUND(E20 - COS(F20)*DbPA*1.5,4)</f>
+        <v>200.57419999999999</v>
+      </c>
+      <c r="I20" s="14">
+        <f xml:space="preserve"> ROUND(E20 - COS(F20)*DbPA*0.5,4)</f>
+        <v>197.1798</v>
+      </c>
+      <c r="J20" s="14">
+        <f xml:space="preserve"> ROUND(E20 + COS(F20)*DbPA*0.5,4)</f>
+        <v>193.78540000000001</v>
+      </c>
+      <c r="K20" s="10">
+        <f xml:space="preserve"> ROUND(E20 + COS(F20)*DbPA*1.5,4)</f>
         <v>190.39099999999999</v>
-      </c>
-      <c r="I20" s="14">
-        <f xml:space="preserve"> ROUND(E20 - COS(F20)*DbPA*0.5*SIGN(E20 - E21),4)</f>
-        <v>193.78540000000001</v>
-      </c>
-      <c r="J20" s="14">
-        <f xml:space="preserve"> ROUND(E20 + COS(F20)*DbPA*0.5*SIGN(E20 - E21),4)</f>
-        <v>197.1798</v>
-      </c>
-      <c r="K20" s="10">
-        <f xml:space="preserve"> ROUND(E20 + COS(F20)*DbPA*1.5*SIGN(E20 - E21),4)</f>
-        <v>200.57419999999999</v>
       </c>
       <c r="L20" s="23">
         <f xml:space="preserve"> ROUND(MOD(H20,Lambda)*360/Lambda,4)</f>
-        <v>119.8617</v>
+        <v>99.447500000000005</v>
       </c>
       <c r="M20" s="20">
-        <f>ROUND(MOD(H20,Lambda)*2*PI/Lambda,4)</f>
-        <v>2.0920000000000001</v>
+        <f>ROUND(MOD(H20,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-1.4058999999999999</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="3"/>
-        <v>6.3464</v>
+        <v>6.6858000000000004</v>
       </c>
       <c r="O20" s="22">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H20/(Lambda))^2),4)</f>
-        <v>-53.190199999999997</v>
+        <v>-53.642800000000001</v>
       </c>
       <c r="P20" s="23">
         <f>ROUND(MOD(I20,Lambda)*360/Lambda,4)</f>
-        <v>353.05700000000002</v>
+        <v>226.25229999999999</v>
       </c>
       <c r="Q20" s="20">
-        <f>ROUND(MOD(I20,Lambda)*2*PI/Lambda,4)</f>
-        <v>6.1619999999999999</v>
+        <f>ROUND(MOD(I20,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.80730000000000002</v>
       </c>
       <c r="R20" s="20">
         <f t="shared" si="4"/>
-        <v>6.4595000000000002</v>
+        <v>6.5727000000000002</v>
       </c>
       <c r="S20" s="22">
         <f>ROUND(-10*LOG10((4*PI*I20/(Lambda))^2),4)</f>
-        <v>-53.343699999999998</v>
+        <v>-53.494500000000002</v>
       </c>
       <c r="T20" s="23">
         <f>ROUND(MOD(J20,Lambda)*360/Lambda,4)</f>
-        <v>226.25229999999999</v>
+        <v>353.05700000000002</v>
       </c>
       <c r="U20" s="20">
-        <f>ROUND(MOD(J20,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.9487999999999999</v>
+        <f>ROUND(MOD(J20,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>3.0204</v>
       </c>
       <c r="V20" s="20">
         <f t="shared" si="5"/>
-        <v>6.5727000000000002</v>
+        <v>6.4595000000000002</v>
       </c>
       <c r="W20" s="22">
         <f>ROUND(-10*LOG10((4*PI*J20/(Lambda))^2),4)</f>
-        <v>-53.494500000000002</v>
+        <v>-53.343699999999998</v>
       </c>
       <c r="X20" s="23">
         <f>ROUND(MOD(K20,Lambda)*360/Lambda,4)</f>
-        <v>99.447500000000005</v>
+        <v>119.8617</v>
       </c>
       <c r="Y20" s="20">
-        <f>ROUND(MOD(K20,Lambda)*2*PI/Lambda,4)</f>
-        <v>1.7357</v>
+        <f>ROUND(MOD(K20,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-1.0496000000000001</v>
       </c>
       <c r="Z20" s="20">
         <f t="shared" si="6"/>
-        <v>6.6858000000000004</v>
+        <v>6.3464</v>
       </c>
       <c r="AA20" s="22">
         <f>ROUND(10*LOG10((4*PI*K20/(Lambda))^2),4)</f>
-        <v>53.642800000000001</v>
+        <v>53.190199999999997</v>
       </c>
       <c r="AB20" s="18"/>
       <c r="AC20" s="14">
@@ -3549,85 +3549,85 @@
         <f xml:space="preserve"> ROUND(F21*180/PI - 90,4)</f>
         <v>34.939300000000003</v>
       </c>
-      <c r="H21" s="15">
-        <f xml:space="preserve"> ROUND(E21 - COS(F21)*DbPA*1.5*SIGN(E21 - E22),4)</f>
+      <c r="H21" s="14">
+        <f xml:space="preserve"> ROUND(E21 - COS(F21)*DbPA*1.5,4)</f>
+        <v>205.81569999999999</v>
+      </c>
+      <c r="I21" s="14">
+        <f xml:space="preserve"> ROUND(E21 - COS(F21)*DbPA*0.5,4)</f>
+        <v>201.99760000000001</v>
+      </c>
+      <c r="J21" s="14">
+        <f xml:space="preserve"> ROUND(E21 + COS(F21)*DbPA*0.5,4)</f>
+        <v>198.17959999999999</v>
+      </c>
+      <c r="K21" s="10">
+        <f xml:space="preserve"> ROUND(E21 + COS(F21)*DbPA*1.5,4)</f>
         <v>194.36150000000001</v>
-      </c>
-      <c r="I21" s="15">
-        <f xml:space="preserve"> ROUND(E21 - COS(F21)*DbPA*0.5*SIGN(E21 - E22),4)</f>
-        <v>198.17959999999999</v>
-      </c>
-      <c r="J21" s="15">
-        <f xml:space="preserve"> ROUND(E21 + COS(F21)*DbPA*0.5*SIGN(E21 - E22),4)</f>
-        <v>201.99760000000001</v>
-      </c>
-      <c r="K21" s="12">
-        <f xml:space="preserve"> ROUND(E21 + COS(F21)*DbPA*1.5*SIGN(E21 - E22),4)</f>
-        <v>205.81569999999999</v>
       </c>
       <c r="L21" s="24">
         <f xml:space="preserve"> ROUND(MOD(H21,Lambda)*360/Lambda,4)</f>
-        <v>32.635100000000001</v>
-      </c>
-      <c r="M21" s="25">
-        <f>ROUND(MOD(H21,Lambda)*2*PI/Lambda,4)</f>
-        <v>0.5696</v>
+        <v>99.538600000000002</v>
+      </c>
+      <c r="M21" s="20">
+        <f>ROUND(MOD(H21,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-1.4043000000000001</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="3"/>
-        <v>6.4786999999999999</v>
+        <v>6.8605</v>
       </c>
       <c r="O21" s="26">
         <f xml:space="preserve"> ROUND(-10*LOG10((4*PI*H21/(Lambda))^2),4)</f>
-        <v>-53.369500000000002</v>
+        <v>-53.866799999999998</v>
       </c>
       <c r="P21" s="24">
         <f>ROUND(MOD(I21,Lambda)*360/Lambda,4)</f>
-        <v>294.93849999999998</v>
-      </c>
-      <c r="Q21" s="25">
-        <f>ROUND(MOD(I21,Lambda)*2*PI/Lambda,4)</f>
-        <v>5.1475999999999997</v>
+        <v>197.23509999999999</v>
+      </c>
+      <c r="Q21" s="20">
+        <f>ROUND(MOD(I21,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>0.30080000000000001</v>
       </c>
       <c r="R21" s="25">
         <f t="shared" si="4"/>
-        <v>6.6059999999999999</v>
+        <v>6.7332999999999998</v>
       </c>
       <c r="S21" s="26">
         <f>ROUND(-10*LOG10((4*PI*I21/(Lambda))^2),4)</f>
-        <v>-53.538499999999999</v>
+        <v>-53.7042</v>
       </c>
       <c r="T21" s="24">
         <f>ROUND(MOD(J21,Lambda)*360/Lambda,4)</f>
-        <v>197.23509999999999</v>
-      </c>
-      <c r="U21" s="25">
-        <f>ROUND(MOD(J21,Lambda)*2*PI/Lambda,4)</f>
-        <v>3.4424000000000001</v>
+        <v>294.93849999999998</v>
+      </c>
+      <c r="U21" s="20">
+        <f>ROUND(MOD(J21,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>2.0061</v>
       </c>
       <c r="V21" s="25">
         <f t="shared" si="5"/>
-        <v>6.7332999999999998</v>
+        <v>6.6059999999999999</v>
       </c>
       <c r="W21" s="26">
         <f>ROUND(-10*LOG10((4*PI*J21/(Lambda))^2),4)</f>
-        <v>-53.7042</v>
+        <v>-53.538499999999999</v>
       </c>
       <c r="X21" s="24">
         <f>ROUND(MOD(K21,Lambda)*360/Lambda,4)</f>
-        <v>99.538600000000002</v>
-      </c>
-      <c r="Y21" s="25">
-        <f>ROUND(MOD(K21,Lambda)*2*PI/Lambda,4)</f>
-        <v>1.7373000000000001</v>
+        <v>32.635100000000001</v>
+      </c>
+      <c r="Y21" s="20">
+        <f>ROUND(MOD(K21,Lambda)*2*PI/Lambda - PI,4)</f>
+        <v>-2.5720000000000001</v>
       </c>
       <c r="Z21" s="25">
         <f t="shared" si="6"/>
-        <v>6.8605</v>
+        <v>6.4786999999999999</v>
       </c>
       <c r="AA21" s="26">
         <f>ROUND(10*LOG10((4*PI*K21/(Lambda))^2),4)</f>
-        <v>53.866799999999998</v>
+        <v>53.369500000000002</v>
       </c>
       <c r="AB21" s="18"/>
       <c r="AC21" s="15">
@@ -3635,11 +3635,6 @@
       </c>
       <c r="AE21" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="E22" s="11">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Thesis_Work\Calibration_Positioning_project\Final_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06C8889-0F00-4B67-A9F2-505CF95D34B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D44BA42-F050-45CF-A535-81883E4CA5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="BaseToAnt">Sheet1!$AJ$7</definedName>
     <definedName name="DbPA" comment="Distance between each path in Rx patch antenna">Sheet1!$AJ$1</definedName>
+    <definedName name="EndToMid">Sheet1!$AJ$5</definedName>
     <definedName name="Freq" comment="Center frequency">Sheet1!$AJ$3</definedName>
     <definedName name="Lambda" comment="wavelength">Sheet1!$AJ$4</definedName>
+    <definedName name="PanelToAnt">Sheet1!$AJ$6</definedName>
     <definedName name="PI" comment="pi value">Sheet1!$AJ$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,8 +44,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Distance between each patch in Rx Patch Antenna (DbPA)</t>
   </si>
@@ -534,6 +559,15 @@
   </si>
   <si>
     <t>Output from MUSIC Algorithm</t>
+  </si>
+  <si>
+    <t>EndToMid</t>
+  </si>
+  <si>
+    <t>PanelToAnt (the shortest distance)</t>
+  </si>
+  <si>
+    <t>BaseToAnt</t>
   </si>
 </sst>
 </file>
@@ -1175,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1240,7 @@
     <col min="30" max="30" width="9.140625" customWidth="1"/>
     <col min="31" max="31" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="53" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1320,15 +1354,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="14">
-        <f>B2+12.1</f>
+        <f>B2+BaseToAnt</f>
         <v>12.1</v>
       </c>
       <c r="D2" s="20">
-        <f xml:space="preserve"> (106 - C2)</f>
+        <f xml:space="preserve"> (EndToMid - C2)</f>
         <v>93.9</v>
       </c>
-      <c r="E2" s="14">
-        <f xml:space="preserve"> ROUND(SQRT(D2*D2 + 175.5*175.5),4)</f>
+      <c r="E2" s="14" cm="1">
+        <f t="array" ref="E2" xml:space="preserve"> ROUND(SQRT(D2*D2 + PanelToAnt*PanelToAnt),4)</f>
         <v>199.04140000000001</v>
       </c>
       <c r="F2" s="20">
@@ -1441,15 +1475,15 @@
         <v>10</v>
       </c>
       <c r="C3" s="14">
-        <f t="shared" ref="C3:C21" si="0">B3+12.1</f>
+        <f>B3+BaseToAnt</f>
         <v>22.1</v>
       </c>
       <c r="D3" s="20">
-        <f t="shared" ref="D3:D21" si="1" xml:space="preserve"> (106 - C3)</f>
+        <f xml:space="preserve"> (EndToMid - C3)</f>
         <v>83.9</v>
       </c>
-      <c r="E3" s="14">
-        <f t="shared" ref="E3:E21" si="2" xml:space="preserve"> ROUND(SQRT(D3*D3 + 175.5*175.5),4)</f>
+      <c r="E3" s="14" cm="1">
+        <f t="array" ref="E3" xml:space="preserve"> ROUND(SQRT(D3*D3 + PanelToAnt*PanelToAnt),4)</f>
         <v>194.52369999999999</v>
       </c>
       <c r="F3" s="20">
@@ -1485,7 +1519,7 @@
         <v>-2.0333999999999999</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N21" si="3">ROUND(H3/100*1000000000/(300000000),4)</f>
+        <f t="shared" ref="N3:N21" si="0">ROUND(H3/100*1000000000/(300000000),4)</f>
         <v>6.319</v>
       </c>
       <c r="O3" s="22">
@@ -1501,7 +1535,7 @@
         <v>1.9258999999999999</v>
       </c>
       <c r="R3" s="20">
-        <f t="shared" ref="R3:R21" si="4">ROUND(I3/100*1000000000/(300000000),4)</f>
+        <f t="shared" ref="R3:R21" si="1">ROUND(I3/100*1000000000/(300000000),4)</f>
         <v>6.4291</v>
       </c>
       <c r="S3" s="22">
@@ -1517,7 +1551,7 @@
         <v>-0.39779999999999999</v>
       </c>
       <c r="V3" s="20">
-        <f t="shared" ref="V3:V21" si="5">ROUND(J3/100*1000000000/300000000,4)</f>
+        <f t="shared" ref="V3:V21" si="2">ROUND(J3/100*1000000000/300000000,4)</f>
         <v>6.5392000000000001</v>
       </c>
       <c r="W3" s="22">
@@ -1533,7 +1567,7 @@
         <v>-2.7216</v>
       </c>
       <c r="Z3" s="20">
-        <f t="shared" ref="Z3:Z21" si="6">ROUND(K3/100*1000000000/300000000,4)</f>
+        <f t="shared" ref="Z3:Z21" si="3">ROUND(K3/100*1000000000/300000000,4)</f>
         <v>6.6492000000000004</v>
       </c>
       <c r="AA3" s="22">
@@ -1565,15 +1599,15 @@
         <v>20</v>
       </c>
       <c r="C4" s="14">
-        <f t="shared" si="0"/>
+        <f>B4+BaseToAnt</f>
         <v>32.1</v>
       </c>
       <c r="D4" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C4)</f>
         <v>73.900000000000006</v>
       </c>
-      <c r="E4" s="14">
-        <f t="shared" si="2"/>
+      <c r="E4" s="14" cm="1">
+        <f t="array" ref="E4" xml:space="preserve"> ROUND(SQRT(D4*D4 + PanelToAnt*PanelToAnt),4)</f>
         <v>190.42439999999999</v>
       </c>
       <c r="F4" s="20">
@@ -1609,7 +1643,7 @@
         <v>8.09E-2</v>
       </c>
       <c r="N4" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.2031000000000001</v>
       </c>
       <c r="O4" s="22">
@@ -1625,7 +1659,7 @@
         <v>-2.7404999999999999</v>
       </c>
       <c r="R4" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.2994000000000003</v>
       </c>
       <c r="S4" s="22">
@@ -1641,7 +1675,7 @@
         <v>0.72140000000000004</v>
       </c>
       <c r="V4" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.3956</v>
       </c>
       <c r="W4" s="22">
@@ -1657,7 +1691,7 @@
         <v>-2.1000999999999999</v>
       </c>
       <c r="Z4" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.4917999999999996</v>
       </c>
       <c r="AA4" s="22">
@@ -1690,15 +1724,15 @@
         <v>30</v>
       </c>
       <c r="C5" s="14">
-        <f t="shared" si="0"/>
+        <f>B5+BaseToAnt</f>
         <v>42.1</v>
       </c>
       <c r="D5" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C5)</f>
         <v>63.9</v>
       </c>
-      <c r="E5" s="14">
-        <f t="shared" si="2"/>
+      <c r="E5" s="14" cm="1">
+        <f t="array" ref="E5" xml:space="preserve"> ROUND(SQRT(D5*D5 + PanelToAnt*PanelToAnt),4)</f>
         <v>186.77109999999999</v>
       </c>
       <c r="F5" s="20">
@@ -1734,7 +1768,7 @@
         <v>2.7166000000000001</v>
       </c>
       <c r="N5" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.1017000000000001</v>
       </c>
       <c r="O5" s="22">
@@ -1750,7 +1784,7 @@
         <v>-0.59340000000000004</v>
       </c>
       <c r="R5" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.1844000000000001</v>
       </c>
       <c r="S5" s="22">
@@ -1766,7 +1800,7 @@
         <v>2.3797000000000001</v>
       </c>
       <c r="V5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.2670000000000003</v>
       </c>
       <c r="W5" s="22">
@@ -1782,7 +1816,7 @@
         <v>-0.93030000000000002</v>
       </c>
       <c r="Z5" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.3497000000000003</v>
       </c>
       <c r="AA5" s="22">
@@ -1795,6 +1829,15 @@
       </c>
       <c r="AE5" t="s">
         <v>9</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>106</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -1805,15 +1848,15 @@
         <v>40</v>
       </c>
       <c r="C6" s="14">
-        <f t="shared" si="0"/>
+        <f>B6+BaseToAnt</f>
         <v>52.1</v>
       </c>
       <c r="D6" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C6)</f>
         <v>53.9</v>
       </c>
-      <c r="E6" s="14">
-        <f t="shared" si="2"/>
+      <c r="E6" s="14" cm="1">
+        <f t="array" ref="E6" xml:space="preserve"> ROUND(SQRT(D6*D6 + PanelToAnt*PanelToAnt),4)</f>
         <v>183.59049999999999</v>
       </c>
       <c r="F6" s="20">
@@ -1849,7 +1892,7 @@
         <v>-0.37719999999999998</v>
       </c>
       <c r="N6" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.0156999999999998</v>
       </c>
       <c r="O6" s="22">
@@ -1865,7 +1908,7 @@
         <v>2.1160000000000001</v>
       </c>
       <c r="R6" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.085</v>
       </c>
       <c r="S6" s="22">
@@ -1881,7 +1924,7 @@
         <v>-1.6738999999999999</v>
       </c>
       <c r="V6" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.1543000000000001</v>
       </c>
       <c r="W6" s="22">
@@ -1897,7 +1940,7 @@
         <v>0.81940000000000002</v>
       </c>
       <c r="Z6" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.2237</v>
       </c>
       <c r="AA6" s="22">
@@ -1910,6 +1953,15 @@
       </c>
       <c r="AE6" t="s">
         <v>10</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>175.5</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -1920,15 +1972,15 @@
         <v>50</v>
       </c>
       <c r="C7" s="14">
-        <f t="shared" si="0"/>
+        <f>B7+BaseToAnt</f>
         <v>62.1</v>
       </c>
       <c r="D7" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C7)</f>
         <v>43.9</v>
       </c>
-      <c r="E7" s="14">
-        <f t="shared" si="2"/>
+      <c r="E7" s="14" cm="1">
+        <f t="array" ref="E7" xml:space="preserve"> ROUND(SQRT(D7*D7 + PanelToAnt*PanelToAnt),4)</f>
         <v>180.90729999999999</v>
       </c>
       <c r="F7" s="20">
@@ -1964,7 +2016,7 @@
         <v>-2.8849</v>
       </c>
       <c r="N7" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.9459999999999997</v>
       </c>
       <c r="O7" s="22">
@@ -1980,7 +2032,7 @@
         <v>-0.86470000000000002</v>
       </c>
       <c r="R7" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.0022000000000002</v>
       </c>
       <c r="S7" s="22">
@@ -1996,7 +2048,7 @@
         <v>1.1555</v>
       </c>
       <c r="V7" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.0583</v>
       </c>
       <c r="W7" s="22">
@@ -2012,7 +2064,7 @@
         <v>-3.1074000000000002</v>
       </c>
       <c r="Z7" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.1144999999999996</v>
       </c>
       <c r="AA7" s="22">
@@ -2025,6 +2077,15 @@
       </c>
       <c r="AE7" t="s">
         <v>11</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -2035,15 +2096,15 @@
         <v>60</v>
       </c>
       <c r="C8" s="14">
-        <f t="shared" si="0"/>
+        <f>B8+BaseToAnt</f>
         <v>72.099999999999994</v>
       </c>
       <c r="D8" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C8)</f>
         <v>33.900000000000006</v>
       </c>
-      <c r="E8" s="14">
-        <f t="shared" si="2"/>
+      <c r="E8" s="14" cm="1">
+        <f t="array" ref="E8" xml:space="preserve"> ROUND(SQRT(D8*D8 + PanelToAnt*PanelToAnt),4)</f>
         <v>178.7441</v>
       </c>
       <c r="F8" s="20">
@@ -2079,7 +2140,7 @@
         <v>1.5044999999999999</v>
       </c>
       <c r="N8" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.8933999999999997</v>
       </c>
       <c r="O8" s="22">
@@ -2095,7 +2156,7 @@
         <v>3.0581</v>
       </c>
       <c r="R8" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.9364999999999997</v>
       </c>
       <c r="S8" s="22">
@@ -2111,7 +2172,7 @@
         <v>-1.6716</v>
       </c>
       <c r="V8" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.9797000000000002</v>
       </c>
       <c r="W8" s="22">
@@ -2127,7 +2188,7 @@
         <v>-0.11799999999999999</v>
       </c>
       <c r="Z8" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.0228999999999999</v>
       </c>
       <c r="AA8" s="22">
@@ -2150,15 +2211,15 @@
         <v>70</v>
       </c>
       <c r="C9" s="14">
-        <f t="shared" si="0"/>
+        <f>B9+BaseToAnt</f>
         <v>82.1</v>
       </c>
       <c r="D9" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C9)</f>
         <v>23.900000000000006</v>
       </c>
-      <c r="E9" s="14">
-        <f t="shared" si="2"/>
+      <c r="E9" s="14" cm="1">
+        <f t="array" ref="E9" xml:space="preserve"> ROUND(SQRT(D9*D9 + PanelToAnt*PanelToAnt),4)</f>
         <v>177.1199</v>
       </c>
       <c r="F9" s="20">
@@ -2194,7 +2255,7 @@
         <v>0.24979999999999999</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.8585000000000003</v>
       </c>
       <c r="O9" s="22">
@@ -2210,7 +2271,7 @@
         <v>1.3414999999999999</v>
       </c>
       <c r="R9" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.8887999999999998</v>
       </c>
       <c r="S9" s="22">
@@ -2226,7 +2287,7 @@
         <v>2.4331999999999998</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.9192</v>
       </c>
       <c r="W9" s="22">
@@ -2242,7 +2303,7 @@
         <v>-2.7583000000000002</v>
       </c>
       <c r="Z9" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.9494999999999996</v>
       </c>
       <c r="AA9" s="22">
@@ -2265,15 +2326,15 @@
         <v>80</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" si="0"/>
+        <f>B10+BaseToAnt</f>
         <v>92.1</v>
       </c>
       <c r="D10" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C10)</f>
         <v>13.900000000000006</v>
       </c>
-      <c r="E10" s="14">
-        <f t="shared" si="2"/>
+      <c r="E10" s="14" cm="1">
+        <f t="array" ref="E10" xml:space="preserve"> ROUND(SQRT(D10*D10 + PanelToAnt*PanelToAnt),4)</f>
         <v>176.0496</v>
       </c>
       <c r="F10" s="20">
@@ -2309,7 +2370,7 @@
         <v>-0.34689999999999999</v>
       </c>
       <c r="N10" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.8418999999999999</v>
       </c>
       <c r="O10" s="22">
@@ -2325,7 +2386,7 @@
         <v>0.28699999999999998</v>
       </c>
       <c r="R10" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.8594999999999997</v>
       </c>
       <c r="S10" s="22">
@@ -2341,7 +2402,7 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="V10" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.8771000000000004</v>
       </c>
       <c r="W10" s="22">
@@ -2357,7 +2418,7 @@
         <v>1.5549999999999999</v>
       </c>
       <c r="Z10" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.8948</v>
       </c>
       <c r="AA10" s="22">
@@ -2380,15 +2441,15 @@
         <v>90</v>
       </c>
       <c r="C11" s="14">
-        <f t="shared" si="0"/>
+        <f>B11+BaseToAnt</f>
         <v>102.1</v>
       </c>
       <c r="D11" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C11)</f>
         <v>3.9000000000000057</v>
       </c>
-      <c r="E11" s="14">
-        <f t="shared" si="2"/>
+      <c r="E11" s="14" cm="1">
+        <f t="array" ref="E11" xml:space="preserve"> ROUND(SQRT(D11*D11 + PanelToAnt*PanelToAnt),4)</f>
         <v>175.54329999999999</v>
       </c>
       <c r="F11" s="20">
@@ -2424,7 +2485,7 @@
         <v>-0.26910000000000001</v>
       </c>
       <c r="N11" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.8440000000000003</v>
       </c>
       <c r="O11" s="22">
@@ -2440,7 +2501,7 @@
         <v>-9.1800000000000007E-2</v>
       </c>
       <c r="R11" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.8490000000000002</v>
       </c>
       <c r="S11" s="22">
@@ -2456,7 +2517,7 @@
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="V11" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.8539000000000003</v>
       </c>
       <c r="W11" s="22">
@@ -2472,7 +2533,7 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="Z11" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.8587999999999996</v>
       </c>
       <c r="AA11" s="22">
@@ -2495,15 +2556,15 @@
         <v>100</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" si="0"/>
+        <f>B12+BaseToAnt</f>
         <v>112.1</v>
       </c>
       <c r="D12" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C12)</f>
         <v>-6.0999999999999943</v>
       </c>
-      <c r="E12" s="14">
-        <f t="shared" si="2"/>
+      <c r="E12" s="14" cm="1">
+        <f t="array" ref="E12" xml:space="preserve"> ROUND(SQRT(D12*D12 + PanelToAnt*PanelToAnt),4)</f>
         <v>175.60599999999999</v>
       </c>
       <c r="F12" s="20">
@@ -2539,7 +2600,7 @@
         <v>0.4894</v>
       </c>
       <c r="N12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.8651</v>
       </c>
       <c r="O12" s="22">
@@ -2555,7 +2616,7 @@
         <v>0.2112</v>
       </c>
       <c r="R12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.8574000000000002</v>
       </c>
       <c r="S12" s="22">
@@ -2571,7 +2632,7 @@
         <v>-6.7000000000000004E-2</v>
       </c>
       <c r="V12" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.8497000000000003</v>
       </c>
       <c r="W12" s="22">
@@ -2587,7 +2648,7 @@
         <v>-0.34510000000000002</v>
       </c>
       <c r="Z12" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.8418999999999999</v>
       </c>
       <c r="AA12" s="22">
@@ -2610,15 +2671,15 @@
         <v>110</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" si="0"/>
+        <f>B13+BaseToAnt</f>
         <v>122.1</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C13)</f>
         <v>-16.099999999999994</v>
       </c>
-      <c r="E13" s="14">
-        <f t="shared" si="2"/>
+      <c r="E13" s="14" cm="1">
+        <f t="array" ref="E13" xml:space="preserve"> ROUND(SQRT(D13*D13 + PanelToAnt*PanelToAnt),4)</f>
         <v>176.23689999999999</v>
       </c>
       <c r="F13" s="20">
@@ -2654,7 +2715,7 @@
         <v>1.9301999999999999</v>
       </c>
       <c r="N13" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.9051999999999998</v>
       </c>
       <c r="O13" s="22">
@@ -2670,7 +2731,7 @@
         <v>1.1957</v>
       </c>
       <c r="R13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.8848000000000003</v>
       </c>
       <c r="S13" s="22">
@@ -2686,7 +2747,7 @@
         <v>0.46139999999999998</v>
       </c>
       <c r="V13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.8643999999999998</v>
       </c>
       <c r="W13" s="22">
@@ -2702,7 +2763,7 @@
         <v>-0.27300000000000002</v>
       </c>
       <c r="Z13" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.8438999999999997</v>
       </c>
       <c r="AA13" s="22">
@@ -2725,15 +2786,15 @@
         <v>120</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" si="0"/>
+        <f>B14+BaseToAnt</f>
         <v>132.1</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C14)</f>
         <v>-26.099999999999994</v>
       </c>
-      <c r="E14" s="14">
-        <f t="shared" si="2"/>
+      <c r="E14" s="14" cm="1">
+        <f t="array" ref="E14" xml:space="preserve"> ROUND(SQRT(D14*D14 + PanelToAnt*PanelToAnt),4)</f>
         <v>177.43020000000001</v>
       </c>
       <c r="F14" s="20">
@@ -2769,7 +2830,7 @@
         <v>-2.2343000000000002</v>
       </c>
       <c r="N14" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.9641000000000002</v>
       </c>
       <c r="O14" s="22">
@@ -2785,7 +2846,7 @@
         <v>2.8559000000000001</v>
       </c>
       <c r="R14" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.9309000000000003</v>
       </c>
       <c r="S14" s="22">
@@ -2801,7 +2862,7 @@
         <v>1.6629</v>
       </c>
       <c r="V14" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.8978000000000002</v>
       </c>
       <c r="W14" s="22">
@@ -2817,7 +2878,7 @@
         <v>0.47</v>
       </c>
       <c r="Z14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.8646000000000003</v>
       </c>
       <c r="AA14" s="22">
@@ -2840,15 +2901,15 @@
         <v>130</v>
       </c>
       <c r="C15" s="14">
-        <f t="shared" si="0"/>
+        <f>B15+BaseToAnt</f>
         <v>142.1</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C15)</f>
         <v>-36.099999999999994</v>
       </c>
-      <c r="E15" s="14">
-        <f t="shared" si="2"/>
+      <c r="E15" s="14" cm="1">
+        <f t="array" ref="E15" xml:space="preserve"> ROUND(SQRT(D15*D15 + PanelToAnt*PanelToAnt),4)</f>
         <v>179.17439999999999</v>
       </c>
       <c r="F15" s="20">
@@ -2884,7 +2945,7 @@
         <v>0.55079999999999996</v>
       </c>
       <c r="N15" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.0415000000000001</v>
       </c>
       <c r="O15" s="22">
@@ -2900,7 +2961,7 @@
         <v>-1.1047</v>
       </c>
       <c r="R15" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.9954999999999998</v>
       </c>
       <c r="S15" s="22">
@@ -2916,7 +2977,7 @@
         <v>-2.7601</v>
       </c>
       <c r="V15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.9494999999999996</v>
       </c>
       <c r="W15" s="22">
@@ -2932,7 +2993,7 @@
         <v>1.8675999999999999</v>
       </c>
       <c r="Z15" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.9034000000000004</v>
       </c>
       <c r="AA15" s="22">
@@ -2955,15 +3016,15 @@
         <v>140</v>
       </c>
       <c r="C16" s="14">
-        <f t="shared" si="0"/>
+        <f>B16+BaseToAnt</f>
         <v>152.1</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C16)</f>
         <v>-46.099999999999994</v>
       </c>
-      <c r="E16" s="14">
-        <f t="shared" si="2"/>
+      <c r="E16" s="14" cm="1">
+        <f t="array" ref="E16" xml:space="preserve"> ROUND(SQRT(D16*D16 + PanelToAnt*PanelToAnt),4)</f>
         <v>181.4537</v>
       </c>
       <c r="F16" s="20">
@@ -2999,7 +3060,7 @@
         <v>-2.2970000000000002</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.1369999999999996</v>
       </c>
       <c r="O16" s="22">
@@ -3015,7 +3076,7 @@
         <v>1.8624000000000001</v>
       </c>
       <c r="R16" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.0780000000000003</v>
       </c>
       <c r="S16" s="22">
@@ -3031,7 +3092,7 @@
         <v>-0.26129999999999998</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.0189000000000004</v>
       </c>
       <c r="W16" s="22">
@@ -3047,7 +3108,7 @@
         <v>-2.3849999999999998</v>
       </c>
       <c r="Z16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.9599000000000002</v>
       </c>
       <c r="AA16" s="22">
@@ -3070,15 +3131,15 @@
         <v>150</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" si="0"/>
+        <f>B17+BaseToAnt</f>
         <v>162.1</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C17)</f>
         <v>-56.099999999999994</v>
       </c>
-      <c r="E17" s="14">
-        <f t="shared" si="2"/>
+      <c r="E17" s="14" cm="1">
+        <f t="array" ref="E17" xml:space="preserve"> ROUND(SQRT(D17*D17 + PanelToAnt*PanelToAnt),4)</f>
         <v>184.2484</v>
       </c>
       <c r="F17" s="20">
@@ -3114,7 +3175,7 @@
         <v>1.7650999999999999</v>
       </c>
       <c r="N17" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.2499000000000002</v>
       </c>
       <c r="O17" s="22">
@@ -3130,7 +3191,7 @@
         <v>-0.8327</v>
       </c>
       <c r="R17" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.1776999999999997</v>
       </c>
       <c r="S17" s="22">
@@ -3146,7 +3207,7 @@
         <v>2.8525999999999998</v>
       </c>
       <c r="V17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.1055000000000001</v>
       </c>
       <c r="W17" s="22">
@@ -3162,7 +3223,7 @@
         <v>0.25480000000000003</v>
       </c>
       <c r="Z17" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.0332999999999997</v>
       </c>
       <c r="AA17" s="22">
@@ -3185,15 +3246,15 @@
         <v>160</v>
       </c>
       <c r="C18" s="14">
-        <f t="shared" si="0"/>
+        <f>B18+BaseToAnt</f>
         <v>172.1</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C18)</f>
         <v>-66.099999999999994</v>
       </c>
-      <c r="E18" s="14">
-        <f t="shared" si="2"/>
+      <c r="E18" s="14" cm="1">
+        <f t="array" ref="E18" xml:space="preserve"> ROUND(SQRT(D18*D18 + PanelToAnt*PanelToAnt),4)</f>
         <v>187.5352</v>
       </c>
       <c r="F18" s="20">
@@ -3229,7 +3290,7 @@
         <v>0.1457</v>
       </c>
       <c r="N18" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.3795999999999999</v>
       </c>
       <c r="O18" s="22">
@@ -3245,7 +3306,7 @@
         <v>-2.9340000000000002</v>
       </c>
       <c r="R18" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.2939999999999996</v>
       </c>
       <c r="S18" s="22">
@@ -3261,7 +3322,7 @@
         <v>0.26950000000000002</v>
       </c>
       <c r="V18" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.2084000000000001</v>
       </c>
       <c r="W18" s="22">
@@ -3277,7 +3338,7 @@
         <v>-2.8102</v>
       </c>
       <c r="Z18" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.1227999999999998</v>
       </c>
       <c r="AA18" s="22">
@@ -3300,15 +3361,15 @@
         <v>170</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="0"/>
+        <f>B19+BaseToAnt</f>
         <v>182.1</v>
       </c>
       <c r="D19" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C19)</f>
         <v>-76.099999999999994</v>
       </c>
-      <c r="E19" s="14">
-        <f t="shared" si="2"/>
+      <c r="E19" s="14" cm="1">
+        <f t="array" ref="E19" xml:space="preserve"> ROUND(SQRT(D19*D19 + PanelToAnt*PanelToAnt),4)</f>
         <v>191.28890000000001</v>
       </c>
       <c r="F19" s="20">
@@ -3344,7 +3405,7 @@
         <v>-0.90080000000000005</v>
       </c>
       <c r="N19" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.5251999999999999</v>
       </c>
       <c r="O19" s="22">
@@ -3360,7 +3421,7 @@
         <v>1.8121</v>
       </c>
       <c r="R19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.4259000000000004</v>
       </c>
       <c r="S19" s="22">
@@ -3376,7 +3437,7 @@
         <v>-1.7581</v>
       </c>
       <c r="V19" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.3266999999999998</v>
       </c>
       <c r="W19" s="22">
@@ -3392,7 +3453,7 @@
         <v>0.95479999999999998</v>
       </c>
       <c r="Z19" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.2274000000000003</v>
       </c>
       <c r="AA19" s="22">
@@ -3415,15 +3476,15 @@
         <v>180</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" si="0"/>
+        <f>B20+BaseToAnt</f>
         <v>192.1</v>
       </c>
       <c r="D20" s="20">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (EndToMid - C20)</f>
         <v>-86.1</v>
       </c>
-      <c r="E20" s="14">
-        <f t="shared" si="2"/>
+      <c r="E20" s="14" cm="1">
+        <f t="array" ref="E20" xml:space="preserve"> ROUND(SQRT(D20*D20 + PanelToAnt*PanelToAnt),4)</f>
         <v>195.48259999999999</v>
       </c>
       <c r="F20" s="20">
@@ -3459,7 +3520,7 @@
         <v>-1.4058999999999999</v>
       </c>
       <c r="N20" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.6858000000000004</v>
       </c>
       <c r="O20" s="22">
@@ -3475,7 +3536,7 @@
         <v>0.80730000000000002</v>
       </c>
       <c r="R20" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.5727000000000002</v>
       </c>
       <c r="S20" s="22">
@@ -3491,7 +3552,7 @@
         <v>3.0204</v>
       </c>
       <c r="V20" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.4595000000000002</v>
       </c>
       <c r="W20" s="22">
@@ -3507,7 +3568,7 @@
         <v>-1.0496000000000001</v>
       </c>
       <c r="Z20" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.3464</v>
       </c>
       <c r="AA20" s="22">
@@ -3529,16 +3590,16 @@
       <c r="B21" s="12">
         <v>190</v>
       </c>
-      <c r="C21" s="15">
-        <f t="shared" si="0"/>
+      <c r="C21" s="14">
+        <f>B21+BaseToAnt</f>
         <v>202.1</v>
       </c>
-      <c r="D21" s="13">
-        <f t="shared" si="1"/>
+      <c r="D21" s="20">
+        <f xml:space="preserve"> (EndToMid - C21)</f>
         <v>-96.1</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="2"/>
+      <c r="E21" s="14" cm="1">
+        <f t="array" ref="E21" xml:space="preserve"> ROUND(SQRT(D21*D21 + PanelToAnt*PanelToAnt),4)</f>
         <v>200.08860000000001</v>
       </c>
       <c r="F21" s="13">
@@ -3569,12 +3630,12 @@
         <f xml:space="preserve"> ROUND(MOD(H21,Lambda)*360/Lambda,4)</f>
         <v>99.538600000000002</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="25">
         <f>ROUND(MOD(H21,Lambda)*2*PI/Lambda - PI,4)</f>
         <v>-1.4043000000000001</v>
       </c>
       <c r="N21" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.8605</v>
       </c>
       <c r="O21" s="26">
@@ -3585,12 +3646,12 @@
         <f>ROUND(MOD(I21,Lambda)*360/Lambda,4)</f>
         <v>197.23509999999999</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="25">
         <f>ROUND(MOD(I21,Lambda)*2*PI/Lambda - PI,4)</f>
         <v>0.30080000000000001</v>
       </c>
       <c r="R21" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.7332999999999998</v>
       </c>
       <c r="S21" s="26">
@@ -3601,12 +3662,12 @@
         <f>ROUND(MOD(J21,Lambda)*360/Lambda,4)</f>
         <v>294.93849999999998</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="25">
         <f>ROUND(MOD(J21,Lambda)*2*PI/Lambda - PI,4)</f>
         <v>2.0061</v>
       </c>
       <c r="V21" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.6059999999999999</v>
       </c>
       <c r="W21" s="26">
@@ -3617,12 +3678,12 @@
         <f>ROUND(MOD(K21,Lambda)*360/Lambda,4)</f>
         <v>32.635100000000001</v>
       </c>
-      <c r="Y21" s="20">
+      <c r="Y21" s="25">
         <f>ROUND(MOD(K21,Lambda)*2*PI/Lambda - PI,4)</f>
         <v>-2.5720000000000001</v>
       </c>
       <c r="Z21" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.4786999999999999</v>
       </c>
       <c r="AA21" s="26">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Thesis_Work\Calibration_Positioning_project\Final_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Thesis_Work\Calibration_Positioning_project\GitRepo\Wide-Band-Receiver-Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0364C1-8282-4EB8-BF7C-7E8218A2BD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CFA6D9-DC34-4441-8B01-2E43B46AD47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -994,9 +994,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1333,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,45 +1468,45 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <v>0</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <f t="shared" ref="C2:C21" si="0">B2+BaseToAnt</f>
         <v>12.1</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <f t="shared" ref="D2:D21" si="1" xml:space="preserve"> (EndToMid - C2)</f>
         <v>93.9</v>
       </c>
-      <c r="E2" s="28" cm="1">
+      <c r="E2" s="27" cm="1">
         <f t="array" ref="E2" xml:space="preserve"> ROUND(SQRT(D2*D2 + PanelToAnt*PanelToAnt),4)</f>
         <v>199.04140000000001</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <f t="shared" ref="F2:F21" si="2">ROUND(PI/2 - TAN(D2/175.5),4)</f>
         <v>0.97809999999999997</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <f t="shared" ref="G2:G21" si="3" xml:space="preserve"> ROUND(F2*180/PI - 90,4)</f>
         <v>-33.959000000000003</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="27">
         <f t="shared" ref="H2:H21" si="4">ROUND(SQRT((D2-DbPA*1.5)*(D2-DbPA*1.5)+PanelToAnt*PanelToAnt),4)</f>
         <v>197.23150000000001</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="27">
         <f t="shared" ref="I2:I21" si="5">ROUND(SQRT((D2-DbPA*0.5)*(D2-DbPA*0.5)+PanelToAnt*PanelToAnt),4)</f>
         <v>198.4314</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="27">
         <f t="shared" ref="J2:J21" si="6">ROUND(SQRT((D2+DbPA*0.5)*(D2+DbPA*0.5)+PanelToAnt*PanelToAnt),4)</f>
         <v>199.65790000000001</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="30">
         <f t="shared" ref="K2:K21" si="7">ROUND(SQRT((D2+DbPA*1.5)*(D2+DbPA*1.5)+PanelToAnt*PanelToAnt),4)</f>
         <v>200.91069999999999</v>
       </c>
@@ -1601,7 +1598,7 @@
         <f t="shared" si="0"/>
         <v>22.1</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="11">
         <f t="shared" si="1"/>
         <v>83.9</v>
       </c>
@@ -1609,7 +1606,7 @@
         <f t="array" ref="E3" xml:space="preserve"> ROUND(SQRT(D3*D3 + PanelToAnt*PanelToAnt),4)</f>
         <v>194.52369999999999</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="11">
         <f t="shared" si="2"/>
         <v>1.0526</v>
       </c>
@@ -1629,7 +1626,7 @@
         <f t="shared" si="6"/>
         <v>195.08789999999999</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="31">
         <f t="shared" si="7"/>
         <v>196.2373</v>
       </c>
@@ -1637,11 +1634,11 @@
         <f t="shared" si="8"/>
         <v>290.42320000000001</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="11">
         <f t="shared" si="9"/>
         <v>-1.2143799999999993</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="11">
         <f t="shared" ref="N3:N21" si="20">ROUND(H3/100*1000000000/(300000000),4)</f>
         <v>6.4291</v>
       </c>
@@ -1653,11 +1650,11 @@
         <f t="shared" si="11"/>
         <v>5.4985999999999997</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="11">
         <f t="shared" si="12"/>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="11">
         <f t="shared" ref="R3:R21" si="21">ROUND(I3/100*1000000000/(300000000),4)</f>
         <v>6.4656000000000002</v>
       </c>
@@ -1669,11 +1666,11 @@
         <f t="shared" si="14"/>
         <v>82.538700000000006</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="11">
         <f t="shared" si="15"/>
         <v>1.4406000000000001</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="11">
         <f t="shared" ref="V3:V21" si="22">ROUND(J3/100*1000000000/300000000,4)</f>
         <v>6.5029000000000003</v>
       </c>
@@ -1685,11 +1682,11 @@
         <f t="shared" si="17"/>
         <v>161.5025</v>
       </c>
-      <c r="Y3" s="27">
+      <c r="Y3" s="11">
         <f t="shared" si="18"/>
         <v>2.8187000000000002</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z21" si="23">ROUND(K3/100*1000000000/300000000,4)</f>
         <v>6.5411999999999999</v>
       </c>
@@ -1724,7 +1721,7 @@
         <f t="shared" si="0"/>
         <v>32.1</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="11">
         <f t="shared" si="1"/>
         <v>73.900000000000006</v>
       </c>
@@ -1732,7 +1729,7 @@
         <f t="array" ref="E4" xml:space="preserve"> ROUND(SQRT(D4*D4 + PanelToAnt*PanelToAnt),4)</f>
         <v>190.42439999999999</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="11">
         <f t="shared" si="2"/>
         <v>1.1229</v>
       </c>
@@ -1752,7 +1749,7 @@
         <f t="shared" si="6"/>
         <v>190.93270000000001</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="31">
         <f t="shared" si="7"/>
         <v>191.9716</v>
       </c>
@@ -1760,11 +1757,11 @@
         <f t="shared" si="8"/>
         <v>20.528400000000001</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="11">
         <f t="shared" si="9"/>
         <v>0.35830000000000001</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="11">
         <f t="shared" si="20"/>
         <v>6.2981999999999996</v>
       </c>
@@ -1776,11 +1773,11 @@
         <f t="shared" si="11"/>
         <v>87.758200000000002</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="11">
         <f t="shared" si="12"/>
         <v>1.5317000000000001</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="11">
         <f t="shared" si="21"/>
         <v>6.3308</v>
       </c>
@@ -1792,11 +1789,11 @@
         <f t="shared" si="14"/>
         <v>157.07650000000001</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="11">
         <f t="shared" si="15"/>
         <v>2.7414999999999998</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="11">
         <f t="shared" si="22"/>
         <v>6.3643999999999998</v>
       </c>
@@ -1808,11 +1805,11 @@
         <f t="shared" si="17"/>
         <v>228.44890000000001</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="Y4" s="11">
         <f t="shared" si="18"/>
         <v>-2.2959799999999997</v>
       </c>
-      <c r="Z4" s="27">
+      <c r="Z4" s="11">
         <f t="shared" si="23"/>
         <v>6.3990999999999998</v>
       </c>
@@ -1848,7 +1845,7 @@
         <f t="shared" si="0"/>
         <v>42.1</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="11">
         <f t="shared" si="1"/>
         <v>63.9</v>
       </c>
@@ -1856,7 +1853,7 @@
         <f t="array" ref="E5" xml:space="preserve"> ROUND(SQRT(D5*D5 + PanelToAnt*PanelToAnt),4)</f>
         <v>186.77109999999999</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="11">
         <f t="shared" si="2"/>
         <v>1.1897</v>
       </c>
@@ -1876,7 +1873,7 @@
         <f t="shared" si="6"/>
         <v>187.2199</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <f t="shared" si="7"/>
         <v>188.14109999999999</v>
       </c>
@@ -1884,11 +1881,11 @@
         <f t="shared" si="8"/>
         <v>141.99510000000001</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="11">
         <f t="shared" si="9"/>
         <v>2.4782999999999999</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="11">
         <f t="shared" si="20"/>
         <v>6.1824000000000003</v>
       </c>
@@ -1900,11 +1897,11 @@
         <f t="shared" si="11"/>
         <v>200.89850000000001</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="11">
         <f t="shared" si="12"/>
         <v>-2.7768799999999998</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="11">
         <f t="shared" si="21"/>
         <v>6.2110000000000003</v>
       </c>
@@ -1916,11 +1913,11 @@
         <f t="shared" si="14"/>
         <v>262.00709999999998</v>
       </c>
-      <c r="U5" s="27">
+      <c r="U5" s="11">
         <f t="shared" si="15"/>
         <v>-1.71028</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="11">
         <f t="shared" si="22"/>
         <v>6.2407000000000004</v>
       </c>
@@ -1932,11 +1929,11 @@
         <f t="shared" si="17"/>
         <v>325.29360000000003</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="Y5" s="11">
         <f t="shared" si="18"/>
         <v>-0.60578000000000021</v>
       </c>
-      <c r="Z5" s="27">
+      <c r="Z5" s="11">
         <f t="shared" si="23"/>
         <v>6.2713999999999999</v>
       </c>
@@ -1971,7 +1968,7 @@
         <f t="shared" si="0"/>
         <v>52.1</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="11">
         <f t="shared" si="1"/>
         <v>53.9</v>
       </c>
@@ -1979,7 +1976,7 @@
         <f t="array" ref="E6" xml:space="preserve"> ROUND(SQRT(D6*D6 + PanelToAnt*PanelToAnt),4)</f>
         <v>183.59049999999999</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="11">
         <f t="shared" si="2"/>
         <v>1.2536</v>
       </c>
@@ -1999,7 +1996,7 @@
         <f t="shared" si="6"/>
         <v>183.97630000000001</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="31">
         <f t="shared" si="7"/>
         <v>184.7731</v>
       </c>
@@ -2007,11 +2004,11 @@
         <f t="shared" si="8"/>
         <v>296.62329999999997</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="11">
         <f t="shared" si="9"/>
         <v>-1.1061800000000002</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="11">
         <f t="shared" si="20"/>
         <v>6.0827999999999998</v>
       </c>
@@ -2023,11 +2020,11 @@
         <f t="shared" si="11"/>
         <v>346.73309999999998</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="11">
         <f t="shared" si="12"/>
         <v>-0.23158000000000012</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="11">
         <f t="shared" si="21"/>
         <v>6.1071</v>
       </c>
@@ -2039,11 +2036,11 @@
         <f t="shared" si="14"/>
         <v>39.171799999999998</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="11">
         <f t="shared" si="15"/>
         <v>0.68369999999999997</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="11">
         <f t="shared" si="22"/>
         <v>6.1325000000000003</v>
       </c>
@@ -2055,11 +2052,11 @@
         <f t="shared" si="17"/>
         <v>93.912000000000006</v>
       </c>
-      <c r="Y6" s="27">
+      <c r="Y6" s="11">
         <f t="shared" si="18"/>
         <v>1.6391</v>
       </c>
-      <c r="Z6" s="27">
+      <c r="Z6" s="11">
         <f t="shared" si="23"/>
         <v>6.1590999999999996</v>
       </c>
@@ -2094,7 +2091,7 @@
         <f t="shared" si="0"/>
         <v>62.1</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="11">
         <f t="shared" si="1"/>
         <v>43.9</v>
       </c>
@@ -2102,7 +2099,7 @@
         <f t="array" ref="E7" xml:space="preserve"> ROUND(SQRT(D7*D7 + PanelToAnt*PanelToAnt),4)</f>
         <v>180.90729999999999</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="11">
         <f t="shared" si="2"/>
         <v>1.3152999999999999</v>
       </c>
@@ -2122,7 +2119,7 @@
         <f t="shared" si="6"/>
         <v>181.22720000000001</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <f t="shared" si="7"/>
         <v>181.8931</v>
       </c>
@@ -2130,11 +2127,11 @@
         <f t="shared" si="8"/>
         <v>126.04810000000001</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="11">
         <f t="shared" si="9"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="11">
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
@@ -2146,11 +2143,11 @@
         <f t="shared" si="11"/>
         <v>166.9658</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="11">
         <f t="shared" si="12"/>
         <v>2.9140999999999999</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="11">
         <f t="shared" si="21"/>
         <v>6.0198999999999998</v>
       </c>
@@ -2162,11 +2159,11 @@
         <f t="shared" si="14"/>
         <v>210.30860000000001</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="11">
         <f t="shared" si="15"/>
         <v>-2.6125799999999999</v>
       </c>
-      <c r="V7" s="27">
+      <c r="V7" s="11">
         <f t="shared" si="22"/>
         <v>6.0408999999999997</v>
       </c>
@@ -2178,11 +2175,11 @@
         <f t="shared" si="17"/>
         <v>256.05599999999998</v>
       </c>
-      <c r="Y7" s="27">
+      <c r="Y7" s="11">
         <f t="shared" si="18"/>
         <v>-1.8141799999999995</v>
       </c>
-      <c r="Z7" s="27">
+      <c r="Z7" s="11">
         <f t="shared" si="23"/>
         <v>6.0631000000000004</v>
       </c>
@@ -2217,7 +2214,7 @@
         <f t="shared" si="0"/>
         <v>72.099999999999994</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="11">
         <f t="shared" si="1"/>
         <v>33.900000000000006</v>
       </c>
@@ -2225,7 +2222,7 @@
         <f t="array" ref="E8" xml:space="preserve"> ROUND(SQRT(D8*D8 + PanelToAnt*PanelToAnt),4)</f>
         <v>178.7441</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="11">
         <f t="shared" si="2"/>
         <v>1.3752</v>
       </c>
@@ -2245,7 +2242,7 @@
         <f t="shared" si="6"/>
         <v>178.99520000000001</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <f t="shared" si="7"/>
         <v>179.52459999999999</v>
       </c>
@@ -2253,11 +2250,11 @@
         <f t="shared" si="8"/>
         <v>351.73270000000002</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="11">
         <f t="shared" si="9"/>
         <v>-0.14428000000000019</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="11">
         <f t="shared" si="20"/>
         <v>5.9348999999999998</v>
       </c>
@@ -2269,11 +2266,11 @@
         <f t="shared" si="11"/>
         <v>23.0943</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="11">
         <f t="shared" si="12"/>
         <v>0.40310000000000001</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="11">
         <f t="shared" si="21"/>
         <v>5.9500999999999999</v>
       </c>
@@ -2285,11 +2282,11 @@
         <f t="shared" si="14"/>
         <v>56.970199999999998</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="11">
         <f t="shared" si="15"/>
         <v>0.99429999999999996</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="11">
         <f t="shared" si="22"/>
         <v>5.9664999999999999</v>
       </c>
@@ -2301,11 +2298,11 @@
         <f t="shared" si="17"/>
         <v>93.34</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="Y8" s="11">
         <f t="shared" si="18"/>
         <v>1.6291</v>
       </c>
-      <c r="Z8" s="27">
+      <c r="Z8" s="11">
         <f t="shared" si="23"/>
         <v>5.9842000000000004</v>
       </c>
@@ -2331,7 +2328,7 @@
         <f t="shared" si="0"/>
         <v>82.1</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="11">
         <f t="shared" si="1"/>
         <v>23.900000000000006</v>
       </c>
@@ -2339,7 +2336,7 @@
         <f t="array" ref="E9" xml:space="preserve"> ROUND(SQRT(D9*D9 + PanelToAnt*PanelToAnt),4)</f>
         <v>177.1199</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="11">
         <f t="shared" si="2"/>
         <v>1.4338</v>
       </c>
@@ -2359,7 +2356,7 @@
         <f t="shared" si="6"/>
         <v>177.3</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <f t="shared" si="7"/>
         <v>177.68819999999999</v>
       </c>
@@ -2367,11 +2364,11 @@
         <f t="shared" si="8"/>
         <v>254.88630000000001</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="11">
         <f t="shared" si="9"/>
         <v>-1.8345799999999999</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="11">
         <f t="shared" si="20"/>
         <v>5.8879000000000001</v>
       </c>
@@ -2383,11 +2380,11 @@
         <f t="shared" si="11"/>
         <v>276.41000000000003</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="11">
         <f t="shared" si="12"/>
         <v>-1.4588799999999997</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="11">
         <f t="shared" si="21"/>
         <v>5.8982999999999999</v>
       </c>
@@ -2399,11 +2396,11 @@
         <f t="shared" si="14"/>
         <v>300.51</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="11">
         <f t="shared" si="15"/>
         <v>-1.0382799999999994</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="11">
         <f t="shared" si="22"/>
         <v>5.91</v>
       </c>
@@ -2415,11 +2412,11 @@
         <f t="shared" si="17"/>
         <v>327.17930000000001</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="Y9" s="11">
         <f t="shared" si="18"/>
         <v>-0.57277999999999984</v>
       </c>
-      <c r="Z9" s="27">
+      <c r="Z9" s="11">
         <f t="shared" si="23"/>
         <v>5.9229000000000003</v>
       </c>
@@ -2445,7 +2442,7 @@
         <f t="shared" si="0"/>
         <v>92.1</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>13.900000000000006</v>
       </c>
@@ -2453,7 +2450,7 @@
         <f t="array" ref="E10" xml:space="preserve"> ROUND(SQRT(D10*D10 + PanelToAnt*PanelToAnt),4)</f>
         <v>176.0496</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="11">
         <f t="shared" si="2"/>
         <v>1.4914000000000001</v>
       </c>
@@ -2473,7 +2470,7 @@
         <f t="shared" si="6"/>
         <v>176.15700000000001</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <f t="shared" si="7"/>
         <v>176.40039999999999</v>
       </c>
@@ -2481,11 +2478,11 @@
         <f t="shared" si="8"/>
         <v>196.40889999999999</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="11">
         <f t="shared" si="9"/>
         <v>-2.8551799999999998</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="11">
         <f t="shared" si="20"/>
         <v>5.8594999999999997</v>
       </c>
@@ -2497,11 +2494,11 @@
         <f t="shared" si="11"/>
         <v>207.8818</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="11">
         <f t="shared" si="12"/>
         <v>-2.6549799999999997</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="11">
         <f t="shared" si="21"/>
         <v>5.8651</v>
       </c>
@@ -2513,11 +2510,11 @@
         <f t="shared" si="14"/>
         <v>221.98589999999999</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="11">
         <f t="shared" si="15"/>
         <v>-2.4087799999999997</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="11">
         <f t="shared" si="22"/>
         <v>5.8719000000000001</v>
       </c>
@@ -2529,11 +2526,11 @@
         <f t="shared" si="17"/>
         <v>238.70750000000001</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="Y10" s="11">
         <f t="shared" si="18"/>
         <v>-2.1169799999999999</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="Z10" s="11">
         <f t="shared" si="23"/>
         <v>5.88</v>
       </c>
@@ -2559,7 +2556,7 @@
         <f t="shared" si="0"/>
         <v>102.1</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
         <v>3.9000000000000057</v>
       </c>
@@ -2567,7 +2564,7 @@
         <f t="array" ref="E11" xml:space="preserve"> ROUND(SQRT(D11*D11 + PanelToAnt*PanelToAnt),4)</f>
         <v>175.54329999999999</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="11">
         <f t="shared" si="2"/>
         <v>1.5486</v>
       </c>
@@ -2587,7 +2584,7 @@
         <f t="shared" si="6"/>
         <v>175.577</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <f t="shared" si="7"/>
         <v>175.67320000000001</v>
       </c>
@@ -2595,11 +2592,11 @@
         <f t="shared" si="8"/>
         <v>176.85</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="11">
         <f t="shared" si="9"/>
         <v>3.0865999999999998</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="11">
         <f t="shared" si="20"/>
         <v>5.85</v>
       </c>
@@ -2611,11 +2608,11 @@
         <f t="shared" si="11"/>
         <v>178.17590000000001</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="11">
         <f t="shared" si="12"/>
         <v>3.1097999999999999</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="11">
         <f t="shared" si="21"/>
         <v>5.8506</v>
       </c>
@@ -2627,11 +2624,11 @@
         <f t="shared" si="14"/>
         <v>182.13990000000001</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="11">
         <f t="shared" si="15"/>
         <v>-3.1042799999999997</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="11">
         <f t="shared" si="22"/>
         <v>5.8525999999999998</v>
       </c>
@@ -2643,11 +2640,11 @@
         <f t="shared" si="17"/>
         <v>188.74879999999999</v>
       </c>
-      <c r="Y11" s="27">
+      <c r="Y11" s="11">
         <f t="shared" si="18"/>
         <v>-2.98888</v>
       </c>
-      <c r="Z11" s="27">
+      <c r="Z11" s="11">
         <f t="shared" si="23"/>
         <v>5.8558000000000003</v>
       </c>
@@ -2673,7 +2670,7 @@
         <f t="shared" si="0"/>
         <v>112.1</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>-6.0999999999999943</v>
       </c>
@@ -2681,7 +2678,7 @@
         <f t="array" ref="E12" xml:space="preserve"> ROUND(SQRT(D12*D12 + PanelToAnt*PanelToAnt),4)</f>
         <v>175.60599999999999</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="11">
         <f t="shared" si="2"/>
         <v>1.6055999999999999</v>
       </c>
@@ -2701,7 +2698,7 @@
         <f t="shared" si="6"/>
         <v>175.56559999999999</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <f t="shared" si="7"/>
         <v>175.5138</v>
       </c>
@@ -2709,11 +2706,11 @@
         <f t="shared" si="8"/>
         <v>196.40889999999999</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="11">
         <f t="shared" si="9"/>
         <v>-2.8551799999999998</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="11">
         <f t="shared" si="20"/>
         <v>5.8594999999999997</v>
       </c>
@@ -2725,11 +2722,11 @@
         <f t="shared" si="11"/>
         <v>187.56030000000001</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="11">
         <f t="shared" si="12"/>
         <v>-3.0096799999999999</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="11">
         <f t="shared" si="21"/>
         <v>5.8552</v>
       </c>
@@ -2741,11 +2738,11 @@
         <f t="shared" si="14"/>
         <v>181.35669999999999</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="11">
         <f t="shared" si="15"/>
         <v>-3.11788</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="11">
         <f t="shared" si="22"/>
         <v>5.8521999999999998</v>
       </c>
@@ -2757,11 +2754,11 @@
         <f t="shared" si="17"/>
         <v>177.79810000000001</v>
       </c>
-      <c r="Y12" s="27">
+      <c r="Y12" s="11">
         <f t="shared" si="18"/>
         <v>3.1032000000000002</v>
       </c>
-      <c r="Z12" s="27">
+      <c r="Z12" s="11">
         <f t="shared" si="23"/>
         <v>5.8505000000000003</v>
       </c>
@@ -2787,7 +2784,7 @@
         <f t="shared" si="0"/>
         <v>122.1</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>-16.099999999999994</v>
       </c>
@@ -2795,7 +2792,7 @@
         <f t="array" ref="E13" xml:space="preserve"> ROUND(SQRT(D13*D13 + PanelToAnt*PanelToAnt),4)</f>
         <v>176.23689999999999</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="11">
         <f t="shared" si="2"/>
         <v>1.6628000000000001</v>
       </c>
@@ -2815,7 +2812,7 @@
         <f t="shared" si="6"/>
         <v>176.12289999999999</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <f t="shared" si="7"/>
         <v>175.92349999999999</v>
       </c>
@@ -2823,11 +2820,11 @@
         <f t="shared" si="8"/>
         <v>254.88630000000001</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="11">
         <f t="shared" si="9"/>
         <v>-1.8345799999999999</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="11">
         <f t="shared" si="20"/>
         <v>5.8879000000000001</v>
       </c>
@@ -2839,11 +2836,11 @@
         <f t="shared" si="11"/>
         <v>235.96639999999999</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="11">
         <f t="shared" si="12"/>
         <v>-2.1647799999999995</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="11">
         <f t="shared" si="21"/>
         <v>5.8787000000000003</v>
       </c>
@@ -2855,11 +2852,11 @@
         <f t="shared" si="14"/>
         <v>219.64320000000001</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="11">
         <f t="shared" si="15"/>
         <v>-2.4496799999999999</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="11">
         <f t="shared" si="22"/>
         <v>5.8708</v>
       </c>
@@ -2871,11 +2868,11 @@
         <f t="shared" si="17"/>
         <v>205.94450000000001</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="Y13" s="11">
         <f t="shared" si="18"/>
         <v>-2.6887799999999999</v>
       </c>
-      <c r="Z13" s="27">
+      <c r="Z13" s="11">
         <f t="shared" si="23"/>
         <v>5.8640999999999996</v>
       </c>
@@ -2901,7 +2898,7 @@
         <f t="shared" si="0"/>
         <v>132.1</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="11">
         <f t="shared" si="1"/>
         <v>-26.099999999999994</v>
       </c>
@@ -2909,7 +2906,7 @@
         <f t="array" ref="E14" xml:space="preserve"> ROUND(SQRT(D14*D14 + PanelToAnt*PanelToAnt),4)</f>
         <v>177.43020000000001</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="11">
         <f t="shared" si="2"/>
         <v>1.7205999999999999</v>
       </c>
@@ -2929,7 +2926,7 @@
         <f t="shared" si="6"/>
         <v>177.24359999999999</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="31">
         <f t="shared" si="7"/>
         <v>176.89850000000001</v>
       </c>
@@ -2937,11 +2934,11 @@
         <f t="shared" si="8"/>
         <v>351.73270000000002</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="11">
         <f t="shared" si="9"/>
         <v>-0.14428000000000019</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="11">
         <f t="shared" si="20"/>
         <v>5.9348999999999998</v>
       </c>
@@ -2953,11 +2950,11 @@
         <f t="shared" si="11"/>
         <v>322.90620000000001</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="11">
         <f t="shared" si="12"/>
         <v>-0.64738000000000007</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="11">
         <f t="shared" si="21"/>
         <v>5.9208999999999996</v>
       </c>
@@ -2969,11 +2966,11 @@
         <f t="shared" si="14"/>
         <v>296.63529999999997</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="11">
         <f t="shared" si="15"/>
         <v>-1.10588</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="11">
         <f t="shared" si="22"/>
         <v>5.9081000000000001</v>
       </c>
@@ -2985,11 +2982,11 @@
         <f t="shared" si="17"/>
         <v>272.92700000000002</v>
       </c>
-      <c r="Y14" s="27">
+      <c r="Y14" s="11">
         <f t="shared" si="18"/>
         <v>-1.5196800000000001</v>
       </c>
-      <c r="Z14" s="27">
+      <c r="Z14" s="11">
         <f t="shared" si="23"/>
         <v>5.8966000000000003</v>
       </c>
@@ -3015,7 +3012,7 @@
         <f t="shared" si="0"/>
         <v>142.1</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>-36.099999999999994</v>
       </c>
@@ -3023,7 +3020,7 @@
         <f t="array" ref="E15" xml:space="preserve"> ROUND(SQRT(D15*D15 + PanelToAnt*PanelToAnt),4)</f>
         <v>179.17439999999999</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="11">
         <f t="shared" si="2"/>
         <v>1.7794000000000001</v>
       </c>
@@ -3043,7 +3040,7 @@
         <f t="shared" si="6"/>
         <v>178.917</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="31">
         <f t="shared" si="7"/>
         <v>178.42949999999999</v>
       </c>
@@ -3051,11 +3048,11 @@
         <f t="shared" si="8"/>
         <v>126.04810000000001</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="11">
         <f t="shared" si="9"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="11">
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
@@ -3067,11 +3064,11 @@
         <f t="shared" si="11"/>
         <v>87.582999999999998</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="11">
         <f t="shared" si="12"/>
         <v>1.5286</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="11">
         <f t="shared" si="21"/>
         <v>5.9813999999999998</v>
       </c>
@@ -3083,11 +3080,11 @@
         <f t="shared" si="14"/>
         <v>51.597900000000003</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="11">
         <f t="shared" si="15"/>
         <v>0.90059999999999996</v>
       </c>
-      <c r="V15" s="27">
+      <c r="V15" s="11">
         <f t="shared" si="22"/>
         <v>5.9638999999999998</v>
       </c>
@@ -3099,11 +3096,11 @@
         <f t="shared" si="17"/>
         <v>18.1066</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="Y15" s="11">
         <f t="shared" si="18"/>
         <v>0.316</v>
       </c>
-      <c r="Z15" s="27">
+      <c r="Z15" s="11">
         <f t="shared" si="23"/>
         <v>5.9477000000000002</v>
       </c>
@@ -3129,7 +3126,7 @@
         <f t="shared" si="0"/>
         <v>152.1</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>-46.099999999999994</v>
       </c>
@@ -3137,7 +3134,7 @@
         <f t="array" ref="E16" xml:space="preserve"> ROUND(SQRT(D16*D16 + PanelToAnt*PanelToAnt),4)</f>
         <v>181.4537</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="11">
         <f t="shared" si="2"/>
         <v>1.8396999999999999</v>
       </c>
@@ -3157,7 +3154,7 @@
         <f t="shared" si="6"/>
         <v>181.12780000000001</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="31">
         <f t="shared" si="7"/>
         <v>180.50229999999999</v>
       </c>
@@ -3165,11 +3162,11 @@
         <f t="shared" si="8"/>
         <v>296.62329999999997</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="11">
         <f t="shared" si="9"/>
         <v>-1.1061800000000002</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="11">
         <f t="shared" si="20"/>
         <v>6.0827999999999998</v>
       </c>
@@ -3181,11 +3178,11 @@
         <f t="shared" si="11"/>
         <v>248.8631</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="11">
         <f t="shared" si="12"/>
         <v>-1.9396800000000001</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="11">
         <f t="shared" si="21"/>
         <v>6.0595999999999997</v>
       </c>
@@ -3197,11 +3194,11 @@
         <f t="shared" si="14"/>
         <v>203.47989999999999</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="11">
         <f t="shared" si="15"/>
         <v>-2.7317799999999997</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="11">
         <f t="shared" si="22"/>
         <v>6.0376000000000003</v>
       </c>
@@ -3213,11 +3210,11 @@
         <f t="shared" si="17"/>
         <v>160.50800000000001</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Y16" s="11">
         <f t="shared" si="18"/>
         <v>2.8014000000000001</v>
       </c>
-      <c r="Z16" s="27">
+      <c r="Z16" s="11">
         <f t="shared" si="23"/>
         <v>6.0167000000000002</v>
       </c>
@@ -3243,7 +3240,7 @@
         <f t="shared" si="0"/>
         <v>162.1</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="11">
         <f t="shared" si="1"/>
         <v>-56.099999999999994</v>
       </c>
@@ -3251,7 +3248,7 @@
         <f t="array" ref="E17" xml:space="preserve"> ROUND(SQRT(D17*D17 + PanelToAnt*PanelToAnt),4)</f>
         <v>184.2484</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="11">
         <f t="shared" si="2"/>
         <v>1.9017999999999999</v>
       </c>
@@ -3271,7 +3268,7 @@
         <f t="shared" si="6"/>
         <v>183.85669999999999</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <f t="shared" si="7"/>
         <v>183.0986</v>
       </c>
@@ -3279,11 +3276,11 @@
         <f t="shared" si="8"/>
         <v>141.99510000000001</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="11">
         <f t="shared" si="9"/>
         <v>2.4782999999999999</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="11">
         <f t="shared" si="20"/>
         <v>6.1824000000000003</v>
       </c>
@@ -3295,11 +3292,11 @@
         <f t="shared" si="11"/>
         <v>85.338200000000001</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="11">
         <f t="shared" si="12"/>
         <v>1.4894000000000001</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="11">
         <f t="shared" si="21"/>
         <v>6.1548999999999996</v>
       </c>
@@ -3311,11 +3308,11 @@
         <f t="shared" si="14"/>
         <v>30.955300000000001</v>
       </c>
-      <c r="U17" s="27">
+      <c r="U17" s="11">
         <f t="shared" si="15"/>
         <v>0.5403</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="11">
         <f t="shared" si="22"/>
         <v>6.1285999999999996</v>
       </c>
@@ -3327,11 +3324,11 @@
         <f t="shared" si="17"/>
         <v>338.87380000000002</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="Y17" s="11">
         <f t="shared" si="18"/>
         <v>-0.36867999999999945</v>
       </c>
-      <c r="Z17" s="27">
+      <c r="Z17" s="11">
         <f t="shared" si="23"/>
         <v>6.1032999999999999</v>
       </c>
@@ -3357,7 +3354,7 @@
         <f t="shared" si="0"/>
         <v>172.1</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="11">
         <f t="shared" si="1"/>
         <v>-66.099999999999994</v>
       </c>
@@ -3365,7 +3362,7 @@
         <f t="array" ref="E18" xml:space="preserve"> ROUND(SQRT(D18*D18 + PanelToAnt*PanelToAnt),4)</f>
         <v>187.5352</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="11">
         <f t="shared" si="2"/>
         <v>1.9662999999999999</v>
       </c>
@@ -3385,7 +3382,7 @@
         <f t="shared" si="6"/>
         <v>187.08099999999999</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="31">
         <f t="shared" si="7"/>
         <v>186.19640000000001</v>
       </c>
@@ -3393,11 +3390,11 @@
         <f t="shared" si="8"/>
         <v>20.528400000000001</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="11">
         <f t="shared" si="9"/>
         <v>0.35830000000000001</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="11">
         <f t="shared" si="20"/>
         <v>6.2981999999999996</v>
       </c>
@@ -3409,11 +3406,11 @@
         <f t="shared" si="11"/>
         <v>315.42140000000001</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="11">
         <f t="shared" si="12"/>
         <v>-0.7780800000000001</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="11">
         <f t="shared" si="21"/>
         <v>6.2666000000000004</v>
       </c>
@@ -3425,11 +3422,11 @@
         <f t="shared" si="14"/>
         <v>252.46469999999999</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="11">
         <f t="shared" si="15"/>
         <v>-1.8768799999999999</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="11">
         <f t="shared" si="22"/>
         <v>6.2359999999999998</v>
       </c>
@@ -3441,11 +3438,11 @@
         <f t="shared" si="17"/>
         <v>191.6927</v>
       </c>
-      <c r="Y18" s="27">
+      <c r="Y18" s="11">
         <f t="shared" si="18"/>
         <v>-2.9374799999999999</v>
       </c>
-      <c r="Z18" s="27">
+      <c r="Z18" s="11">
         <f t="shared" si="23"/>
         <v>6.2065000000000001</v>
       </c>
@@ -3471,7 +3468,7 @@
         <f t="shared" si="0"/>
         <v>182.1</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>-76.099999999999994</v>
       </c>
@@ -3479,7 +3476,7 @@
         <f t="array" ref="E19" xml:space="preserve"> ROUND(SQRT(D19*D19 + PanelToAnt*PanelToAnt),4)</f>
         <v>191.28890000000001</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="11">
         <f t="shared" si="2"/>
         <v>2.0337999999999998</v>
       </c>
@@ -3499,7 +3496,7 @@
         <f t="shared" si="6"/>
         <v>190.77549999999999</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="31">
         <f t="shared" si="7"/>
         <v>189.77119999999999</v>
       </c>
@@ -3507,11 +3504,11 @@
         <f t="shared" si="8"/>
         <v>290.42320000000001</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="11">
         <f t="shared" si="9"/>
         <v>-1.2143799999999993</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="11">
         <f t="shared" si="20"/>
         <v>6.4291</v>
       </c>
@@ -3523,11 +3520,11 @@
         <f t="shared" si="11"/>
         <v>217.33330000000001</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="11">
         <f t="shared" si="12"/>
         <v>-2.4899799999999996</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="11">
         <f t="shared" si="21"/>
         <v>6.3936999999999999</v>
       </c>
@@ -3539,11 +3536,11 @@
         <f t="shared" si="14"/>
         <v>146.27690000000001</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="11">
         <f t="shared" si="15"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="V19" s="27">
+      <c r="V19" s="11">
         <f t="shared" si="22"/>
         <v>6.3592000000000004</v>
       </c>
@@ -3555,11 +3552,11 @@
         <f t="shared" si="17"/>
         <v>77.281400000000005</v>
       </c>
-      <c r="Y19" s="27">
+      <c r="Y19" s="11">
         <f t="shared" si="18"/>
         <v>1.3488</v>
       </c>
-      <c r="Z19" s="27">
+      <c r="Z19" s="11">
         <f t="shared" si="23"/>
         <v>6.3257000000000003</v>
       </c>
@@ -3585,7 +3582,7 @@
         <f t="shared" si="0"/>
         <v>192.1</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>-86.1</v>
       </c>
@@ -3593,7 +3590,7 @@
         <f t="array" ref="E20" xml:space="preserve"> ROUND(SQRT(D20*D20 + PanelToAnt*PanelToAnt),4)</f>
         <v>195.48259999999999</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="11">
         <f t="shared" si="2"/>
         <v>2.105</v>
       </c>
@@ -3613,7 +3610,7 @@
         <f t="shared" si="6"/>
         <v>194.9135</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="31">
         <f t="shared" si="7"/>
         <v>193.79650000000001</v>
       </c>
@@ -3621,11 +3618,11 @@
         <f t="shared" si="8"/>
         <v>229.80410000000001</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="11">
         <f t="shared" si="9"/>
         <v>-2.2723800000000001</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="11">
         <f t="shared" si="20"/>
         <v>6.5743999999999998</v>
       </c>
@@ -3637,11 +3634,11 @@
         <f t="shared" si="11"/>
         <v>149.23269999999999</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="11">
         <f t="shared" si="12"/>
         <v>2.6046</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="11">
         <f t="shared" si="21"/>
         <v>6.5353000000000003</v>
       </c>
@@ -3653,11 +3650,11 @@
         <f t="shared" si="14"/>
         <v>70.557500000000005</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="11">
         <f t="shared" si="15"/>
         <v>1.2315</v>
       </c>
-      <c r="V20" s="27">
+      <c r="V20" s="11">
         <f t="shared" si="22"/>
         <v>6.4970999999999997</v>
       </c>
@@ -3669,11 +3666,11 @@
         <f t="shared" si="17"/>
         <v>353.81959999999998</v>
       </c>
-      <c r="Y20" s="27">
+      <c r="Y20" s="11">
         <f t="shared" si="18"/>
         <v>-0.10787999999999975</v>
       </c>
-      <c r="Z20" s="27">
+      <c r="Z20" s="11">
         <f t="shared" si="23"/>
         <v>6.4599000000000002</v>
       </c>
@@ -3727,7 +3724,7 @@
         <f t="shared" si="6"/>
         <v>199.4675</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <f t="shared" si="7"/>
         <v>198.245</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Thesis_Work\Calibration_Positioning_project\GitRepo\Wide-Band-Receiver-Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CFA6D9-DC34-4441-8B01-2E43B46AD47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA7D445-A8AF-424F-A2E4-73A034633CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Distance between each patch in Rx Patch Antenna (DbPA)</t>
   </si>
@@ -87,66 +87,6 @@
     <t>cm</t>
   </si>
   <si>
-    <t xml:space="preserve">    "TimeStep:"    "1"    "doas"    "-34"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "2"    "doas"    "-32"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "3"    " Failed "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "4"    "doas"    "-26"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "5"    "doas"    "-23"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "6"    "doas"    "-21"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "7"    "doas"    "-18"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "8"    "doas"    "-15"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "9"    "doas"    "-11"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "10"    "doas"    "-8"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "11"    "doas"    "-6"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "12"    "doas"    "-1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "13"    "doas"    "1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "14"    " Failed "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "15"    "doas"    "7"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "16"    "doas"    "10"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "17"    "doas"    "12"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "18"    "doas"    "15"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "19"    "doas"    "30"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "TimeStep:"    "20"    "doas"    "33"</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">DfL
 </t>
@@ -556,9 +496,6 @@
   </si>
   <si>
     <t>SrNo</t>
-  </si>
-  <si>
-    <t>Output from MUSIC Algorithm</t>
   </si>
   <si>
     <t>EndToMid</t>
@@ -568,6 +505,9 @@
   </si>
   <si>
     <t>BaseToAnt</t>
+  </si>
+  <si>
+    <t>Final Output from MUSIC Algorithm</t>
   </si>
 </sst>
 </file>
@@ -918,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +953,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1302,7 @@
     <col min="28" max="28" width="12" customWidth="1"/>
     <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.140625" customWidth="1"/>
-    <col min="31" max="31" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="53" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13.42578125" style="1" customWidth="1"/>
     <col min="37" max="37" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -1367,93 +1310,93 @@
   <sheetData>
     <row r="1" spans="1:37" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="AA1" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="AB1" s="4"/>
       <c r="AC1" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
@@ -1577,8 +1520,8 @@
       <c r="AC2" s="14">
         <v>15</v>
       </c>
-      <c r="AE2" t="s">
-        <v>6</v>
+      <c r="AE2" s="33">
+        <v>-27.9</v>
       </c>
       <c r="AI2" t="s">
         <v>1</v>
@@ -1697,8 +1640,8 @@
       <c r="AC3" s="14">
         <v>44</v>
       </c>
-      <c r="AE3" t="s">
-        <v>7</v>
+      <c r="AE3" s="33">
+        <v>-25.3</v>
       </c>
       <c r="AI3" t="s">
         <v>2</v>
@@ -1820,8 +1763,8 @@
       <c r="AC4" s="14">
         <v>66</v>
       </c>
-      <c r="AE4" t="s">
-        <v>8</v>
+      <c r="AE4" s="33">
+        <v>-22.6</v>
       </c>
       <c r="AI4" t="s">
         <v>3</v>
@@ -1944,11 +1887,11 @@
       <c r="AC5" s="14">
         <v>92</v>
       </c>
-      <c r="AE5" t="s">
-        <v>9</v>
+      <c r="AE5" s="33">
+        <v>-19.8</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AJ5" s="1">
         <v>106</v>
@@ -2067,11 +2010,11 @@
       <c r="AC6" s="14">
         <v>131</v>
       </c>
-      <c r="AE6" t="s">
-        <v>10</v>
+      <c r="AE6" s="33">
+        <v>-16.899999999999999</v>
       </c>
       <c r="AI6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="AJ6" s="1">
         <v>175.5</v>
@@ -2190,11 +2133,11 @@
       <c r="AC7" s="14">
         <v>191</v>
       </c>
-      <c r="AE7" t="s">
-        <v>11</v>
+      <c r="AE7" s="33">
+        <v>-13.9</v>
       </c>
       <c r="AI7" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AJ7" s="1">
         <v>12.1</v>
@@ -2313,8 +2256,8 @@
       <c r="AC8" s="14">
         <v>227</v>
       </c>
-      <c r="AE8" t="s">
-        <v>12</v>
+      <c r="AE8" s="33">
+        <v>-10.8</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -2427,8 +2370,8 @@
       <c r="AC9" s="14">
         <v>258</v>
       </c>
-      <c r="AE9" t="s">
-        <v>13</v>
+      <c r="AE9" s="33">
+        <v>-7.7</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -2541,8 +2484,8 @@
       <c r="AC10" s="14">
         <v>287</v>
       </c>
-      <c r="AE10" t="s">
-        <v>14</v>
+      <c r="AE10" s="33">
+        <v>-4.5</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -2655,8 +2598,8 @@
       <c r="AC11" s="14">
         <v>321</v>
       </c>
-      <c r="AE11" t="s">
-        <v>15</v>
+      <c r="AE11" s="33">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2769,8 +2712,8 @@
       <c r="AC12" s="14">
         <v>358</v>
       </c>
-      <c r="AE12" t="s">
-        <v>16</v>
+      <c r="AE12" s="33">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -2883,8 +2826,8 @@
       <c r="AC13" s="14">
         <v>389</v>
       </c>
-      <c r="AE13" t="s">
-        <v>17</v>
+      <c r="AE13" s="33">
+        <v>5.2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -2997,8 +2940,8 @@
       <c r="AC14" s="14">
         <v>419</v>
       </c>
-      <c r="AE14" t="s">
-        <v>18</v>
+      <c r="AE14" s="33">
+        <v>8.4</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -3111,8 +3054,8 @@
       <c r="AC15" s="14">
         <v>446</v>
       </c>
-      <c r="AE15" t="s">
-        <v>19</v>
+      <c r="AE15" s="33">
+        <v>11.5</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -3225,8 +3168,8 @@
       <c r="AC16" s="14">
         <v>476</v>
       </c>
-      <c r="AE16" t="s">
-        <v>20</v>
+      <c r="AE16" s="33">
+        <v>14.6</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -3339,8 +3282,8 @@
       <c r="AC17" s="14">
         <v>499</v>
       </c>
-      <c r="AE17" t="s">
-        <v>21</v>
+      <c r="AE17" s="33">
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -3453,8 +3396,8 @@
       <c r="AC18" s="14">
         <v>533</v>
       </c>
-      <c r="AE18" t="s">
-        <v>22</v>
+      <c r="AE18" s="33">
+        <v>20.5</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -3567,8 +3510,8 @@
       <c r="AC19" s="14">
         <v>573</v>
       </c>
-      <c r="AE19" t="s">
-        <v>23</v>
+      <c r="AE19" s="33">
+        <v>23.2</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -3681,8 +3624,8 @@
       <c r="AC20" s="14">
         <v>601</v>
       </c>
-      <c r="AE20" t="s">
-        <v>24</v>
+      <c r="AE20" s="33">
+        <v>25.9</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3795,8 +3738,8 @@
       <c r="AC21" s="15">
         <v>630</v>
       </c>
-      <c r="AE21" t="s">
-        <v>25</v>
+      <c r="AE21" s="33">
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>
